--- a/xlsx/KALA Chart 2023-03-05-11-07_filtered.xlsx
+++ b/xlsx/KALA Chart 2023-03-05-11-07_filtered.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blachotrapezrabka-my.sharepoint.com/personal/p_stolarczyk_blachotrapez_com_pl/Documents/Dokumenty/Amarork/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blachotrapezrabka-my.sharepoint.com/personal/p_stolarczyk_blachotrapez_com_pl/Documents/Dokumenty/Amarork/VBA_for_gradient_analysis/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{021E3DB8-0ED0-42BD-9185-A2A90DC9CE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073B85DF-5D38-455A-932E-5AC873028ACC}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{6DE11A3D-9C80-492D-BE25-0B50620B23A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCA5AA5-71D1-4FE9-A1DF-12FAD67A2CE3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E806E94-D7E7-4977-B529-3D6DD57A10CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8914B9D4-E4C6-42A7-B291-21EDD79B439E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Peak</t>
-  </si>
-  <si>
-    <t>Dip</t>
   </si>
   <si>
     <t>Minimum before 9:30</t>
@@ -752,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CABB4B-6658-4ACE-9C75-68FED7C756BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2033B0E2-A7D4-4C61-8ECE-B48BA40C321E}">
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -766,49 +763,49 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>11.305707174</v>
+        <v>11.322151977000001</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>11.039325236</v>
+        <v>11.603742285999999</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
-        <v>11.26</v>
+        <v>11.0106</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>11.322151977000001</v>
+        <v>11.305707174</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>11.603742285999999</v>
+        <v>11.039325236</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>11.0106</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -817,14 +814,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5014D-81C9-465C-ABB4-DC8E0263601B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0B111A-8BBF-47A4-B681-BE48D8A9F388}">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,931 +891,937 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5">
-        <v>0.81944444444444453</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6">
-        <v>-277</v>
+        <v>-345</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>10.28</v>
+        <v>11.0106</v>
       </c>
       <c r="G2" s="6">
-        <v>10.28</v>
+        <v>11.0106</v>
       </c>
       <c r="H2" s="6">
-        <v>10.28</v>
+        <v>11.0106</v>
       </c>
       <c r="I2" s="6">
-        <v>10.28</v>
+        <v>11.0106</v>
       </c>
       <c r="J2" s="6">
-        <v>11.039325236</v>
+        <v>11.603742285999999</v>
       </c>
       <c r="K2" s="6">
-        <v>10.225686349</v>
+        <v>11.322151977000001</v>
       </c>
       <c r="L2" s="6">
-        <v>10.167082239999999</v>
+        <v>11.243329185</v>
       </c>
       <c r="M2" s="6">
-        <v>10.32</v>
+        <v>11.41</v>
       </c>
       <c r="N2" s="6">
-        <v>9.9600000000000009</v>
+        <v>11.04</v>
       </c>
       <c r="O2" s="6">
-        <v>10.37</v>
+        <v>11.7</v>
       </c>
       <c r="P2" s="6">
-        <v>10.59</v>
+        <v>11.01</v>
       </c>
       <c r="Q2" s="6">
-        <v>10.171332708</v>
+        <v>11.151319551</v>
       </c>
       <c r="R2" s="6">
-        <v>85760</v>
+        <v>200</v>
       </c>
       <c r="S2" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="9">
-        <v>0.71875</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D3" s="10">
-        <v>-278</v>
+        <v>-344</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>10.07</v>
+        <v>11.2</v>
       </c>
       <c r="G3" s="10">
-        <v>10.07</v>
+        <v>11.2</v>
       </c>
       <c r="H3" s="10">
-        <v>10.07</v>
+        <v>11.2</v>
       </c>
       <c r="I3" s="10">
-        <v>10.07</v>
+        <v>11.2</v>
       </c>
       <c r="J3" s="10">
-        <v>11.047809317</v>
+        <v>11.599281046</v>
       </c>
       <c r="K3" s="10">
-        <v>10.219969122</v>
+        <v>11.310518455</v>
       </c>
       <c r="L3" s="10">
-        <v>10.1388528</v>
+        <v>11.234663348</v>
       </c>
       <c r="M3" s="10">
-        <v>10.27</v>
+        <v>11.38</v>
       </c>
       <c r="N3" s="10">
-        <v>9.98</v>
+        <v>11.04</v>
       </c>
       <c r="O3" s="10">
-        <v>10.37</v>
+        <v>11.69</v>
       </c>
       <c r="P3" s="10">
-        <v>10.59</v>
+        <v>11.16</v>
       </c>
       <c r="Q3" s="10">
-        <v>10.098887847</v>
+        <v>11.170791731</v>
       </c>
       <c r="R3" s="10">
-        <v>85660</v>
+        <v>922</v>
       </c>
       <c r="S3" s="10">
-        <v>111</v>
+        <v>722</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5">
-        <v>0.70138888888888884</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-343</v>
+      </c>
+      <c r="E4" s="6">
         <v>25</v>
       </c>
-      <c r="D4" s="6">
-        <v>-279</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
       <c r="F4" s="6">
-        <v>10.130000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="G4" s="6">
-        <v>10.130000000000001</v>
+        <v>11.35</v>
       </c>
       <c r="H4" s="6">
-        <v>10.08</v>
+        <v>11.100099999999999</v>
       </c>
       <c r="I4" s="6">
-        <v>10.08</v>
+        <v>11.26</v>
       </c>
       <c r="J4" s="6">
-        <v>11.058734561</v>
+        <v>11.595532084</v>
       </c>
       <c r="K4" s="6">
-        <v>10.235755345999999</v>
+        <v>11.305707174</v>
       </c>
       <c r="L4" s="6">
-        <v>10.156065999000001</v>
+        <v>11.239730678000001</v>
       </c>
       <c r="M4" s="6">
-        <v>10.28</v>
+        <v>11.38</v>
       </c>
       <c r="N4" s="6">
-        <v>10</v>
+        <v>11.04</v>
       </c>
       <c r="O4" s="6">
-        <v>10.37</v>
+        <v>11.64</v>
       </c>
       <c r="P4" s="6">
-        <v>10.59</v>
+        <v>11.2</v>
       </c>
       <c r="Q4" s="6">
-        <v>10.118146412</v>
+        <v>11.206475039000001</v>
       </c>
       <c r="R4" s="6">
-        <v>85549</v>
+        <v>1879</v>
       </c>
       <c r="S4" s="6">
-        <v>296</v>
+        <v>957</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="9">
-        <v>0.68402777777777779</v>
+        <v>0.40625</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10">
-        <v>-280</v>
+        <v>-342</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>10.07</v>
+        <v>11.164999999999999</v>
       </c>
       <c r="G5" s="10">
-        <v>10.07</v>
+        <v>11.164999999999999</v>
       </c>
       <c r="H5" s="10">
-        <v>10.07</v>
+        <v>11.164999999999999</v>
       </c>
       <c r="I5" s="10">
-        <v>10.07</v>
+        <v>11.164999999999999</v>
       </c>
       <c r="J5" s="10">
-        <v>11.069670143</v>
+        <v>11.590774823</v>
       </c>
       <c r="K5" s="10">
-        <v>10.252150645</v>
+        <v>11.292306491</v>
       </c>
       <c r="L5" s="10">
-        <v>10.175082499</v>
+        <v>11.224784543</v>
       </c>
       <c r="M5" s="10">
-        <v>10.33</v>
+        <v>11.35</v>
       </c>
       <c r="N5" s="10">
-        <v>10</v>
+        <v>11.03</v>
       </c>
       <c r="O5" s="10">
-        <v>10.37</v>
+        <v>11.63</v>
       </c>
       <c r="P5" s="10">
-        <v>10.59</v>
+        <v>11.19</v>
       </c>
       <c r="Q5" s="10">
-        <v>10.143577353</v>
+        <v>11.189885023</v>
       </c>
       <c r="R5" s="10">
-        <v>85253</v>
+        <v>2379</v>
       </c>
       <c r="S5" s="10">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5">
-        <v>0.68055555555555547</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D6" s="6">
-        <v>-281</v>
+        <v>-341</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>10.29</v>
+        <v>11.19</v>
       </c>
       <c r="G6" s="6">
-        <v>10.29</v>
+        <v>11.19</v>
       </c>
       <c r="H6" s="6">
-        <v>10.29</v>
+        <v>11.05</v>
       </c>
       <c r="I6" s="6">
-        <v>10.29</v>
+        <v>11.1</v>
       </c>
       <c r="J6" s="6">
-        <v>11.080839641000001</v>
+        <v>11.585351897000001</v>
       </c>
       <c r="K6" s="6">
-        <v>10.271324397000001</v>
+        <v>11.273991586999999</v>
       </c>
       <c r="L6" s="6">
-        <v>10.201353124000001</v>
+        <v>11.199827634</v>
       </c>
       <c r="M6" s="6">
-        <v>10.33</v>
+        <v>11.33</v>
       </c>
       <c r="N6" s="6">
-        <v>10.039999999999999</v>
+        <v>11.01</v>
       </c>
       <c r="O6" s="6">
-        <v>10.37</v>
+        <v>11.58</v>
       </c>
       <c r="P6" s="6">
-        <v>10.59</v>
+        <v>11.13</v>
       </c>
       <c r="Q6" s="6">
-        <v>10.192628921000001</v>
+        <v>11.153931013999999</v>
       </c>
       <c r="R6" s="6">
-        <v>85053</v>
+        <v>10667</v>
       </c>
       <c r="S6" s="6">
-        <v>246</v>
+        <v>8288</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="9">
-        <v>0.67361111111111116</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
-        <v>-282</v>
+        <v>-340</v>
       </c>
       <c r="E7" s="10">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10">
-        <v>10.29</v>
+        <v>11.12</v>
       </c>
       <c r="G7" s="10">
-        <v>10.29</v>
+        <v>11.15</v>
       </c>
       <c r="H7" s="10">
-        <v>10.07</v>
+        <v>11.08</v>
       </c>
       <c r="I7" s="10">
-        <v>10.07</v>
+        <v>11.1</v>
       </c>
       <c r="J7" s="10">
-        <v>11.089675839</v>
+        <v>11.579988892999999</v>
       </c>
       <c r="K7" s="10">
-        <v>10.269358543999999</v>
+        <v>11.257420959999999</v>
       </c>
       <c r="L7" s="10">
-        <v>10.179191404999999</v>
+        <v>11.179862107</v>
       </c>
       <c r="M7" s="10">
-        <v>10.29</v>
+        <v>11.3</v>
       </c>
       <c r="N7" s="10">
-        <v>10.039999999999999</v>
+        <v>11</v>
       </c>
       <c r="O7" s="10">
-        <v>10.37</v>
+        <v>11.52</v>
       </c>
       <c r="P7" s="10">
-        <v>10.59</v>
+        <v>11.13</v>
       </c>
       <c r="Q7" s="10">
-        <v>10.127714869</v>
+        <v>11.132358608000001</v>
       </c>
       <c r="R7" s="10">
-        <v>84807</v>
+        <v>11567</v>
       </c>
       <c r="S7" s="10">
-        <v>602</v>
+        <v>900</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D8" s="6">
-        <v>-283</v>
+        <v>-339</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>10.130000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="G8" s="6">
-        <v>10.130000000000001</v>
+        <v>11.2599</v>
       </c>
       <c r="H8" s="6">
-        <v>10.130000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="I8" s="6">
-        <v>10.130000000000001</v>
+        <v>11.2599</v>
       </c>
       <c r="J8" s="6">
-        <v>11.101068865</v>
+        <v>11.576451999</v>
       </c>
       <c r="K8" s="6">
-        <v>10.290343654000001</v>
+        <v>11.257657059</v>
       </c>
       <c r="L8" s="6">
-        <v>10.206489255999999</v>
+        <v>11.195869686</v>
       </c>
       <c r="M8" s="6">
-        <v>10.31</v>
+        <v>11.32</v>
       </c>
       <c r="N8" s="6">
-        <v>10.08</v>
+        <v>10.99</v>
       </c>
       <c r="O8" s="6">
-        <v>10.37</v>
+        <v>11.47</v>
       </c>
       <c r="P8" s="6">
-        <v>10.6</v>
+        <v>11.15</v>
       </c>
       <c r="Q8" s="6">
-        <v>10.166191447999999</v>
+        <v>11.183375164999999</v>
       </c>
       <c r="R8" s="6">
-        <v>84205</v>
+        <v>13505</v>
       </c>
       <c r="S8" s="6">
-        <v>3820</v>
+        <v>1938</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="9">
-        <v>0.66319444444444442</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D9" s="10">
-        <v>-284</v>
+        <v>-338</v>
       </c>
       <c r="E9" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>10.16</v>
+        <v>11.18</v>
       </c>
       <c r="G9" s="10">
-        <v>10.201499999999999</v>
+        <v>11.18</v>
       </c>
       <c r="H9" s="10">
-        <v>10.120100000000001</v>
+        <v>11.18</v>
       </c>
       <c r="I9" s="10">
-        <v>10.16</v>
+        <v>11.18</v>
       </c>
       <c r="J9" s="10">
-        <v>11.111918795999999</v>
+        <v>11.572071314</v>
       </c>
       <c r="K9" s="10">
-        <v>10.307221933999999</v>
+        <v>11.250261148</v>
       </c>
       <c r="L9" s="10">
-        <v>10.22561157</v>
+        <v>11.192695749</v>
       </c>
       <c r="M9" s="10">
-        <v>10.36</v>
+        <v>11.3</v>
       </c>
       <c r="N9" s="10">
-        <v>10.09</v>
+        <v>11.06</v>
       </c>
       <c r="O9" s="10">
-        <v>10.37</v>
+        <v>11.4</v>
       </c>
       <c r="P9" s="10">
-        <v>10.62</v>
+        <v>11.15</v>
       </c>
       <c r="Q9" s="10">
-        <v>10.19031908</v>
+        <v>11.182025099000001</v>
       </c>
       <c r="R9" s="10">
-        <v>80385</v>
+        <v>14005</v>
       </c>
       <c r="S9" s="10">
-        <v>4604</v>
+        <v>500</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>0.65972222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6">
-        <v>-285</v>
+        <v>-337</v>
       </c>
       <c r="E10" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>10.19</v>
+        <v>11.18</v>
       </c>
       <c r="G10" s="6">
-        <v>10.19</v>
+        <v>11.22</v>
       </c>
       <c r="H10" s="6">
-        <v>10.119999999999999</v>
+        <v>11.0601</v>
       </c>
       <c r="I10" s="6">
-        <v>10.1517</v>
+        <v>11.0601</v>
       </c>
       <c r="J10" s="6">
-        <v>11.12255476</v>
+        <v>11.566414172</v>
       </c>
       <c r="K10" s="6">
-        <v>10.322718978999999</v>
+        <v>11.232150562999999</v>
       </c>
       <c r="L10" s="6">
-        <v>10.242014463</v>
+        <v>11.166176599</v>
       </c>
       <c r="M10" s="6">
-        <v>10.37</v>
+        <v>11.3</v>
       </c>
       <c r="N10" s="6">
-        <v>10.11</v>
+        <v>11.02</v>
       </c>
       <c r="O10" s="6">
-        <v>10.36</v>
+        <v>11.39</v>
       </c>
       <c r="P10" s="6">
-        <v>10.65</v>
+        <v>11.15</v>
       </c>
       <c r="Q10" s="6">
-        <v>10.2105318</v>
+        <v>11.133255059</v>
       </c>
       <c r="R10" s="6">
-        <v>75781</v>
+        <v>14575</v>
       </c>
       <c r="S10" s="6">
-        <v>808</v>
+        <v>570</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="9">
-        <v>0.65625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D11" s="10">
-        <v>-286</v>
+        <v>-336</v>
       </c>
       <c r="E11" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>10.23</v>
+        <v>11.25</v>
       </c>
       <c r="G11" s="10">
-        <v>10.2799</v>
+        <v>11.25</v>
       </c>
       <c r="H11" s="10">
-        <v>10.23</v>
+        <v>11.25</v>
       </c>
       <c r="I11" s="10">
-        <v>10.2799</v>
+        <v>11.25</v>
       </c>
       <c r="J11" s="10">
-        <v>11.1334023</v>
+        <v>11.562917883000001</v>
       </c>
       <c r="K11" s="10">
-        <v>10.340720977</v>
+        <v>11.233850509</v>
       </c>
       <c r="L11" s="10">
-        <v>10.264593079000001</v>
+        <v>11.182941279</v>
       </c>
       <c r="M11" s="10">
-        <v>10.36</v>
+        <v>11.3</v>
       </c>
       <c r="N11" s="10">
-        <v>10.15</v>
+        <v>11.02</v>
       </c>
       <c r="O11" s="10">
-        <v>10.4</v>
+        <v>11.37</v>
       </c>
       <c r="P11" s="10">
-        <v>10.65</v>
+        <v>11.15</v>
       </c>
       <c r="Q11" s="10">
-        <v>10.249753</v>
+        <v>11.179953036000001</v>
       </c>
       <c r="R11" s="10">
-        <v>74973</v>
+        <v>15075</v>
       </c>
       <c r="S11" s="10">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5">
-        <v>0.65277777777777779</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6">
-        <v>-287</v>
+        <v>-335</v>
       </c>
       <c r="E12" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="6">
-        <v>10.18</v>
+        <v>11.11</v>
       </c>
       <c r="G12" s="6">
-        <v>10.2258</v>
+        <v>11.11</v>
       </c>
       <c r="H12" s="6">
-        <v>10.18</v>
+        <v>11.09</v>
       </c>
       <c r="I12" s="6">
-        <v>10.2258</v>
+        <v>11.095000000000001</v>
       </c>
       <c r="J12" s="6">
-        <v>11.142938638</v>
+        <v>11.557747519999999</v>
       </c>
       <c r="K12" s="6">
-        <v>10.347123184999999</v>
+        <v>11.220626651</v>
       </c>
       <c r="L12" s="6">
-        <v>10.260766349000001</v>
+        <v>11.165353023</v>
       </c>
       <c r="M12" s="6">
-        <v>10.36</v>
+        <v>11.29</v>
       </c>
       <c r="N12" s="6">
-        <v>10.15</v>
+        <v>11</v>
       </c>
       <c r="O12" s="6">
-        <v>10.47</v>
+        <v>11.35</v>
       </c>
       <c r="P12" s="6">
-        <v>10.66</v>
+        <v>11.15</v>
       </c>
       <c r="Q12" s="6">
-        <v>10.229654999999999</v>
+        <v>11.145971821</v>
       </c>
       <c r="R12" s="6">
-        <v>73373</v>
+        <v>15525</v>
       </c>
       <c r="S12" s="6">
-        <v>828</v>
+        <v>450</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="9">
-        <v>0.64930555555555558</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10">
-        <v>-288</v>
+        <v>-334</v>
       </c>
       <c r="E13" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>10.220000000000001</v>
+        <v>11.1075</v>
       </c>
       <c r="G13" s="10">
-        <v>10.23</v>
+        <v>11.1075</v>
       </c>
       <c r="H13" s="10">
-        <v>10.15</v>
+        <v>11.1075</v>
       </c>
       <c r="I13" s="10">
-        <v>10.15</v>
+        <v>11.1075</v>
       </c>
       <c r="J13" s="10">
-        <v>11.153185997</v>
+        <v>11.552772408999999</v>
       </c>
       <c r="K13" s="10">
-        <v>10.359894046999999</v>
+        <v>11.209852683999999</v>
       </c>
       <c r="L13" s="10">
-        <v>10.269507936</v>
+        <v>11.153782419000001</v>
       </c>
       <c r="M13" s="10">
-        <v>10.36</v>
+        <v>11.29</v>
       </c>
       <c r="N13" s="10">
-        <v>10.15</v>
+        <v>11.01</v>
       </c>
       <c r="O13" s="10">
-        <v>10.55</v>
+        <v>11.34</v>
       </c>
       <c r="P13" s="10">
-        <v>10.67</v>
+        <v>11.15</v>
       </c>
       <c r="Q13" s="10">
-        <v>10.232225</v>
+        <v>11.130583093</v>
       </c>
       <c r="R13" s="10">
-        <v>72545</v>
+        <v>16125</v>
       </c>
       <c r="S13" s="10">
-        <v>1027</v>
+        <v>600</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6">
-        <v>-289</v>
+        <v>-333</v>
       </c>
       <c r="E14" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>10.32</v>
+        <v>11.11</v>
       </c>
       <c r="G14" s="6">
-        <v>10.32</v>
+        <v>11.11</v>
       </c>
       <c r="H14" s="6">
-        <v>10.28</v>
+        <v>11.1</v>
       </c>
       <c r="I14" s="6">
-        <v>10.28</v>
+        <v>11.1</v>
       </c>
       <c r="J14" s="6">
-        <v>11.164394779</v>
+        <v>11.547769399</v>
       </c>
       <c r="K14" s="6">
-        <v>10.381988157</v>
+        <v>11.199390524</v>
       </c>
       <c r="L14" s="6">
-        <v>10.29938492</v>
+        <v>11.143025935000001</v>
       </c>
       <c r="M14" s="6">
-        <v>10.34</v>
+        <v>11.29</v>
       </c>
       <c r="N14" s="6">
-        <v>10.210000000000001</v>
+        <v>11.01</v>
       </c>
       <c r="O14" s="6">
-        <v>10.59</v>
+        <v>11.32</v>
       </c>
       <c r="P14" s="6">
-        <v>10.67</v>
+        <v>11.15</v>
       </c>
       <c r="Q14" s="6">
-        <v>10.287041667</v>
+        <v>11.118349856</v>
       </c>
       <c r="R14" s="6">
-        <v>71518</v>
+        <v>16525</v>
       </c>
       <c r="S14" s="6">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="9">
-        <v>0.64236111111111105</v>
+        <v>0.46875</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D15" s="10">
-        <v>-290</v>
+        <v>-332</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="10">
-        <v>10.34</v>
+        <v>11.06</v>
       </c>
       <c r="G15" s="10">
-        <v>10.34</v>
+        <v>11.075100000000001</v>
       </c>
       <c r="H15" s="10">
-        <v>10.34</v>
+        <v>11.06</v>
       </c>
       <c r="I15" s="10">
-        <v>10.34</v>
+        <v>11.075100000000001</v>
       </c>
       <c r="J15" s="10">
-        <v>11.174276284999999</v>
+        <v>11.542546532999999</v>
       </c>
       <c r="K15" s="10">
-        <v>10.392723752</v>
+        <v>11.187553331</v>
       </c>
       <c r="L15" s="10">
-        <v>10.304231149</v>
+        <v>11.129440748</v>
       </c>
       <c r="M15" s="10">
-        <v>10.33</v>
+        <v>11.25</v>
       </c>
       <c r="N15" s="10">
-        <v>10.210000000000001</v>
+        <v>11</v>
       </c>
       <c r="O15" s="10">
-        <v>10.62</v>
+        <v>11.31</v>
       </c>
       <c r="P15" s="10">
-        <v>10.68</v>
+        <v>11.14</v>
       </c>
       <c r="Q15" s="10">
-        <v>10.291736111000001</v>
+        <v>11.101049913000001</v>
       </c>
       <c r="R15" s="10">
-        <v>71204</v>
+        <v>16795</v>
       </c>
       <c r="S15" s="10">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D16" s="6">
-        <v>-291</v>
+        <v>-331</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6">
-        <v>10.25</v>
+        <v>11.030099999999999</v>
       </c>
       <c r="G16" s="6">
-        <v>10.25</v>
+        <v>11.103400000000001</v>
       </c>
       <c r="H16" s="6">
-        <v>10.25</v>
+        <v>11.030099999999999</v>
       </c>
       <c r="I16" s="6">
-        <v>10.25</v>
+        <v>11.103400000000001</v>
       </c>
       <c r="J16" s="6">
-        <v>11.183597808</v>
+        <v>11.537694085</v>
       </c>
       <c r="K16" s="6">
-        <v>10.398273621</v>
+        <v>11.179538728000001</v>
       </c>
       <c r="L16" s="6">
-        <v>10.295288937</v>
+        <v>11.124232598000001</v>
       </c>
       <c r="M16" s="6">
-        <v>10.32</v>
+        <v>11.23</v>
       </c>
       <c r="N16" s="6">
-        <v>10.220000000000001</v>
+        <v>11</v>
       </c>
       <c r="O16" s="6">
-        <v>10.66</v>
+        <v>11.29</v>
       </c>
       <c r="P16" s="6">
-        <v>10.68</v>
+        <v>11.14</v>
       </c>
       <c r="Q16" s="6">
-        <v>10.259560186</v>
+        <v>11.101989948</v>
       </c>
       <c r="R16" s="6">
-        <v>70504</v>
+        <v>17840</v>
       </c>
       <c r="S16" s="6">
-        <v>200</v>
+        <v>1045</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1827,58 +1832,58 @@
         <v>22</v>
       </c>
       <c r="B17" s="9">
-        <v>0.63541666666666663</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D17" s="10">
-        <v>-292</v>
+        <v>-330</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <v>10.2582</v>
+        <v>11.03</v>
       </c>
       <c r="G17" s="10">
-        <v>10.2582</v>
+        <v>11.030099999999999</v>
       </c>
       <c r="H17" s="10">
-        <v>10.2582</v>
+        <v>11.03</v>
       </c>
       <c r="I17" s="10">
-        <v>10.2582</v>
+        <v>11.030099999999999</v>
       </c>
       <c r="J17" s="10">
-        <v>11.194029068000001</v>
+        <v>11.532085309999999</v>
       </c>
       <c r="K17" s="10">
-        <v>10.413881371</v>
+        <v>11.165306468000001</v>
       </c>
       <c r="L17" s="10">
-        <v>10.306611171</v>
+        <v>11.105406079</v>
       </c>
       <c r="M17" s="10">
-        <v>10.33</v>
+        <v>11.23</v>
       </c>
       <c r="N17" s="10">
-        <v>10.220000000000001</v>
+        <v>10.99</v>
       </c>
       <c r="O17" s="10">
-        <v>10.68</v>
+        <v>11.28</v>
       </c>
       <c r="P17" s="10">
-        <v>10.68</v>
+        <v>11.14</v>
       </c>
       <c r="Q17" s="10">
-        <v>10.265933643</v>
+        <v>11.073233969</v>
       </c>
       <c r="R17" s="10">
-        <v>70304</v>
+        <v>18240</v>
       </c>
       <c r="S17" s="10">
-        <v>2976</v>
+        <v>400</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -1889,58 +1894,58 @@
         <v>22</v>
       </c>
       <c r="B18" s="5">
-        <v>0.63194444444444442</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6">
-        <v>-293</v>
+        <v>-329</v>
       </c>
       <c r="E18" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="6">
-        <v>10.28</v>
+        <v>11.031000000000001</v>
       </c>
       <c r="G18" s="6">
-        <v>10.28</v>
+        <v>11.04</v>
       </c>
       <c r="H18" s="6">
-        <v>10.24</v>
+        <v>10.96</v>
       </c>
       <c r="I18" s="6">
-        <v>10.2796</v>
+        <v>10.96</v>
       </c>
       <c r="J18" s="6">
-        <v>11.204485259</v>
+        <v>11.525763926</v>
       </c>
       <c r="K18" s="6">
-        <v>10.430268883</v>
+        <v>11.145753471000001</v>
       </c>
       <c r="L18" s="6">
-        <v>10.318713964000001</v>
+        <v>11.076324863</v>
       </c>
       <c r="M18" s="6">
-        <v>10.34</v>
+        <v>11.17</v>
       </c>
       <c r="N18" s="6">
-        <v>10.220000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="O18" s="6">
-        <v>10.69</v>
+        <v>11.29</v>
       </c>
       <c r="P18" s="6">
-        <v>10.7</v>
+        <v>11.12</v>
       </c>
       <c r="Q18" s="6">
-        <v>10.271089405</v>
+        <v>11.027940381000001</v>
       </c>
       <c r="R18" s="6">
-        <v>67328</v>
+        <v>20727</v>
       </c>
       <c r="S18" s="6">
-        <v>1747</v>
+        <v>2487</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -1951,58 +1956,58 @@
         <v>22</v>
       </c>
       <c r="B19" s="9">
-        <v>0.62847222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10">
-        <v>-294</v>
+        <v>-328</v>
       </c>
       <c r="E19" s="10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10">
-        <v>10.251200000000001</v>
+        <v>10.83</v>
       </c>
       <c r="G19" s="10">
-        <v>10.267799999999999</v>
+        <v>10.9899</v>
       </c>
       <c r="H19" s="10">
-        <v>10.228300000000001</v>
+        <v>10.83</v>
       </c>
       <c r="I19" s="10">
-        <v>10.228300000000001</v>
+        <v>10.960599999999999</v>
       </c>
       <c r="J19" s="10">
-        <v>11.214819173</v>
+        <v>11.519519020000001</v>
       </c>
       <c r="K19" s="10">
-        <v>10.446128765999999</v>
+        <v>11.128119806999999</v>
       </c>
       <c r="L19" s="10">
-        <v>10.328492454999999</v>
+        <v>11.053179889999999</v>
       </c>
       <c r="M19" s="10">
-        <v>10.34</v>
+        <v>11.17</v>
       </c>
       <c r="N19" s="10">
-        <v>10.210000000000001</v>
+        <v>10.93</v>
       </c>
       <c r="O19" s="10">
-        <v>10.72</v>
+        <v>11.29</v>
       </c>
       <c r="P19" s="10">
-        <v>10.71</v>
+        <v>11.11</v>
       </c>
       <c r="Q19" s="10">
-        <v>10.265415674</v>
+        <v>11.001004228999999</v>
       </c>
       <c r="R19" s="10">
-        <v>65581</v>
+        <v>21427</v>
       </c>
       <c r="S19" s="10">
-        <v>969</v>
+        <v>700</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -2013,58 +2018,58 @@
         <v>22</v>
       </c>
       <c r="B20" s="5">
-        <v>0.625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6">
-        <v>-295</v>
+        <v>-327</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6">
-        <v>10.27</v>
+        <v>10.881500000000001</v>
       </c>
       <c r="G20" s="6">
-        <v>10.27</v>
+        <v>10.881500000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>10.27</v>
+        <v>10.83</v>
       </c>
       <c r="I20" s="6">
-        <v>10.27</v>
+        <v>10.881399999999999</v>
       </c>
       <c r="J20" s="6">
-        <v>11.225841732999999</v>
+        <v>11.512467981</v>
       </c>
       <c r="K20" s="6">
-        <v>10.469058110000001</v>
+        <v>11.104622683000001</v>
       </c>
       <c r="L20" s="6">
-        <v>10.353540568</v>
+        <v>11.018823912</v>
       </c>
       <c r="M20" s="6">
-        <v>10.43</v>
+        <v>11.17</v>
       </c>
       <c r="N20" s="6">
-        <v>10.19</v>
+        <v>10.86</v>
       </c>
       <c r="O20" s="6">
-        <v>10.74</v>
+        <v>11.28</v>
       </c>
       <c r="P20" s="6">
-        <v>10.72</v>
+        <v>11.11</v>
       </c>
       <c r="Q20" s="6">
-        <v>10.290159457</v>
+        <v>10.953162537000001</v>
       </c>
       <c r="R20" s="6">
-        <v>64612</v>
+        <v>21727</v>
       </c>
       <c r="S20" s="6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -2075,58 +2080,58 @@
         <v>22</v>
       </c>
       <c r="B21" s="9">
-        <v>0.62152777777777779</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10">
-        <v>-296</v>
+        <v>-326</v>
       </c>
       <c r="E21" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>10.28</v>
+        <v>10.85</v>
       </c>
       <c r="G21" s="10">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="H21" s="10">
-        <v>10.199999999999999</v>
+        <v>10.85</v>
       </c>
       <c r="I21" s="10">
-        <v>10.2576</v>
+        <v>10.85</v>
       </c>
       <c r="J21" s="10">
-        <v>11.236521528999999</v>
+        <v>11.505147893</v>
       </c>
       <c r="K21" s="10">
-        <v>10.490011595</v>
+        <v>11.080372904000001</v>
       </c>
       <c r="L21" s="10">
-        <v>10.374425711000001</v>
+        <v>10.98505913</v>
       </c>
       <c r="M21" s="10">
-        <v>10.53</v>
+        <v>11.15</v>
       </c>
       <c r="N21" s="10">
-        <v>10.16</v>
+        <v>10.81</v>
       </c>
       <c r="O21" s="10">
-        <v>10.76</v>
+        <v>11.29</v>
       </c>
       <c r="P21" s="10">
-        <v>10.72</v>
+        <v>11.1</v>
       </c>
       <c r="Q21" s="10">
-        <v>10.303599094999999</v>
+        <v>10.911897522</v>
       </c>
       <c r="R21" s="10">
-        <v>63712</v>
+        <v>22291</v>
       </c>
       <c r="S21" s="10">
-        <v>4647</v>
+        <v>564</v>
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -2137,58 +2142,58 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>0.61805555555555558</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6">
-        <v>-297</v>
+        <v>-325</v>
       </c>
       <c r="E22" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
-        <v>10.34</v>
+        <v>10.92</v>
       </c>
       <c r="G22" s="6">
-        <v>10.34</v>
+        <v>10.92</v>
       </c>
       <c r="H22" s="6">
-        <v>10.3</v>
+        <v>10.92</v>
       </c>
       <c r="I22" s="6">
-        <v>10.3188</v>
+        <v>10.92</v>
       </c>
       <c r="J22" s="6">
-        <v>11.2474592</v>
+        <v>11.498682171</v>
       </c>
       <c r="K22" s="6">
-        <v>10.514475973</v>
+        <v>11.065099293999999</v>
       </c>
       <c r="L22" s="6">
-        <v>10.403632138000001</v>
+        <v>10.972047304</v>
       </c>
       <c r="M22" s="6">
-        <v>10.64</v>
+        <v>11.11</v>
       </c>
       <c r="N22" s="6">
-        <v>10.15</v>
+        <v>10.8</v>
       </c>
       <c r="O22" s="6">
-        <v>10.75</v>
+        <v>11.29</v>
       </c>
       <c r="P22" s="6">
-        <v>10.76</v>
+        <v>11.1</v>
       </c>
       <c r="Q22" s="6">
-        <v>10.334265158999999</v>
+        <v>10.915138513</v>
       </c>
       <c r="R22" s="6">
-        <v>59065</v>
+        <v>22591</v>
       </c>
       <c r="S22" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -2199,58 +2204,58 @@
         <v>22</v>
       </c>
       <c r="B23" s="9">
-        <v>0.61458333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D23" s="10">
-        <v>-298</v>
+        <v>-324</v>
       </c>
       <c r="E23" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23" s="10">
-        <v>10.4</v>
+        <v>10.870100000000001</v>
       </c>
       <c r="G23" s="10">
-        <v>10.4</v>
+        <v>10.870100000000001</v>
       </c>
       <c r="H23" s="10">
-        <v>10.3</v>
+        <v>10.6701</v>
       </c>
       <c r="I23" s="10">
-        <v>10.3</v>
+        <v>10.6701</v>
       </c>
       <c r="J23" s="10">
-        <v>11.25783528</v>
+        <v>11.489526567</v>
       </c>
       <c r="K23" s="10">
-        <v>10.535073444</v>
+        <v>11.027480313</v>
       </c>
       <c r="L23" s="10">
-        <v>10.424840173</v>
+        <v>10.911657843</v>
       </c>
       <c r="M23" s="10">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="N23" s="10">
-        <v>10.17</v>
+        <v>10.69</v>
       </c>
       <c r="O23" s="10">
-        <v>10.75</v>
+        <v>11.33</v>
       </c>
       <c r="P23" s="10">
-        <v>10.76</v>
+        <v>11.01</v>
       </c>
       <c r="Q23" s="10">
-        <v>10.344575265</v>
+        <v>10.817123108000001</v>
       </c>
       <c r="R23" s="10">
-        <v>58665</v>
+        <v>30491</v>
       </c>
       <c r="S23" s="10">
-        <v>4441</v>
+        <v>7900</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -2261,58 +2266,58 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>0.61111111111111105</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D24" s="6">
-        <v>-299</v>
+        <v>-323</v>
       </c>
       <c r="E24" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24" s="6">
-        <v>10.267799999999999</v>
+        <v>10.803100000000001</v>
       </c>
       <c r="G24" s="6">
-        <v>10.32</v>
+        <v>10.803100000000001</v>
       </c>
       <c r="H24" s="6">
-        <v>10.2515</v>
+        <v>10.6997</v>
       </c>
       <c r="I24" s="6">
-        <v>10.32</v>
+        <v>10.795199999999999</v>
       </c>
       <c r="J24" s="6">
-        <v>11.268537350000001</v>
+        <v>11.48185445</v>
       </c>
       <c r="K24" s="6">
-        <v>10.559818017</v>
+        <v>11.005358379</v>
       </c>
       <c r="L24" s="6">
-        <v>10.456050216</v>
+        <v>10.888366273999999</v>
       </c>
       <c r="M24" s="6">
-        <v>10.71</v>
+        <v>11.05</v>
       </c>
       <c r="N24" s="6">
-        <v>10.220000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="O24" s="6">
-        <v>10.76</v>
+        <v>11.3</v>
       </c>
       <c r="P24" s="6">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="6">
-        <v>10.374292108000001</v>
+        <v>10.808353865000001</v>
       </c>
       <c r="R24" s="6">
-        <v>54224</v>
+        <v>31317</v>
       </c>
       <c r="S24" s="6">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2323,58 +2328,58 @@
         <v>22</v>
       </c>
       <c r="B25" s="9">
-        <v>0.60763888888888895</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D25" s="10">
-        <v>-300</v>
+        <v>-322</v>
       </c>
       <c r="E25" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F25" s="10">
-        <v>10.42</v>
+        <v>10.810499999999999</v>
       </c>
       <c r="G25" s="10">
-        <v>10.42</v>
+        <v>10.84</v>
       </c>
       <c r="H25" s="10">
-        <v>10.25</v>
+        <v>10.8</v>
       </c>
       <c r="I25" s="10">
-        <v>10.25</v>
+        <v>10.8</v>
       </c>
       <c r="J25" s="10">
-        <v>11.279135533</v>
+        <v>11.474320147</v>
       </c>
       <c r="K25" s="10">
-        <v>10.585062019</v>
+        <v>10.985800438</v>
       </c>
       <c r="L25" s="10">
-        <v>10.49006277</v>
+        <v>10.870693019999999</v>
       </c>
       <c r="M25" s="10">
-        <v>10.74</v>
+        <v>11.01</v>
       </c>
       <c r="N25" s="10">
-        <v>10.28</v>
+        <v>10.67</v>
       </c>
       <c r="O25" s="10">
-        <v>10.76</v>
+        <v>11.27</v>
       </c>
       <c r="P25" s="10">
-        <v>10.81</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="10">
-        <v>10.410486847</v>
+        <v>10.805012318999999</v>
       </c>
       <c r="R25" s="10">
-        <v>53383</v>
+        <v>32117</v>
       </c>
       <c r="S25" s="10">
-        <v>4169</v>
+        <v>800</v>
       </c>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -2385,58 +2390,58 @@
         <v>22</v>
       </c>
       <c r="B26" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D26" s="6">
-        <v>-301</v>
+        <v>-321</v>
       </c>
       <c r="E26" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F26" s="6">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="G26" s="6">
-        <v>10.5</v>
+        <v>10.864000000000001</v>
       </c>
       <c r="H26" s="6">
-        <v>10.45</v>
+        <v>10.71</v>
       </c>
       <c r="I26" s="6">
-        <v>10.45</v>
+        <v>10.71</v>
       </c>
       <c r="J26" s="6">
-        <v>11.290634254</v>
+        <v>11.465874619999999</v>
       </c>
       <c r="K26" s="6">
-        <v>10.620331705</v>
+        <v>10.95953373</v>
       </c>
       <c r="L26" s="6">
-        <v>10.550078462</v>
+        <v>10.838554415999999</v>
       </c>
       <c r="M26" s="6">
-        <v>10.66</v>
+        <v>10.97</v>
       </c>
       <c r="N26" s="6">
-        <v>10.45</v>
+        <v>10.64</v>
       </c>
       <c r="O26" s="6">
-        <v>10.71</v>
+        <v>11.27</v>
       </c>
       <c r="P26" s="6">
-        <v>10.85</v>
+        <v>10.99</v>
       </c>
       <c r="Q26" s="6">
-        <v>10.517478078</v>
+        <v>10.767007391</v>
       </c>
       <c r="R26" s="6">
-        <v>49214</v>
+        <v>32679</v>
       </c>
       <c r="S26" s="6">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -2447,55 +2452,55 @@
         <v>22</v>
       </c>
       <c r="B27" s="9">
-        <v>0.59722222222222221</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D27" s="10">
-        <v>-302</v>
+        <v>-320</v>
       </c>
       <c r="E27" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="10">
-        <v>10.58</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="G27" s="10">
-        <v>10.58</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="H27" s="10">
-        <v>10.525</v>
+        <v>10.7</v>
       </c>
       <c r="I27" s="10">
-        <v>10.525</v>
+        <v>10.7</v>
       </c>
       <c r="J27" s="10">
-        <v>11.300026816000001</v>
+        <v>11.457411917</v>
       </c>
       <c r="K27" s="10">
-        <v>10.638261357999999</v>
+        <v>10.934816231999999</v>
       </c>
       <c r="L27" s="10">
-        <v>10.575098078</v>
+        <v>10.810843533</v>
       </c>
       <c r="M27" s="10">
-        <v>10.66</v>
+        <v>10.94</v>
       </c>
       <c r="N27" s="10">
-        <v>10.45</v>
+        <v>10.62</v>
       </c>
       <c r="O27" s="10">
-        <v>10.7</v>
+        <v>11.22</v>
       </c>
       <c r="P27" s="10">
-        <v>10.85</v>
+        <v>10.99</v>
       </c>
       <c r="Q27" s="10">
-        <v>10.562463463</v>
+        <v>10.740204435000001</v>
       </c>
       <c r="R27" s="10">
-        <v>48715</v>
+        <v>32979</v>
       </c>
       <c r="S27" s="10">
         <v>300</v>
@@ -2509,58 +2514,58 @@
         <v>22</v>
       </c>
       <c r="B28" s="5">
-        <v>0.59375</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6">
-        <v>-303</v>
+        <v>-319</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6">
-        <v>10.63</v>
+        <v>10.700100000000001</v>
       </c>
       <c r="G28" s="6">
-        <v>10.63</v>
+        <v>10.700100000000001</v>
       </c>
       <c r="H28" s="6">
-        <v>10.617599999999999</v>
+        <v>10.5601</v>
       </c>
       <c r="I28" s="6">
-        <v>10.617599999999999</v>
+        <v>10.688700000000001</v>
       </c>
       <c r="J28" s="6">
-        <v>11.308686333000001</v>
+        <v>11.448917863</v>
       </c>
       <c r="K28" s="6">
-        <v>10.650183607000001</v>
+        <v>10.91137659</v>
       </c>
       <c r="L28" s="6">
-        <v>10.587622596999999</v>
+        <v>10.786414826</v>
       </c>
       <c r="M28" s="6">
-        <v>10.68</v>
+        <v>10.92</v>
       </c>
       <c r="N28" s="6">
-        <v>10.45</v>
+        <v>10.59</v>
       </c>
       <c r="O28" s="6">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="P28" s="6">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="Q28" s="6">
-        <v>10.587439105</v>
+        <v>10.719602661</v>
       </c>
       <c r="R28" s="6">
-        <v>48415</v>
+        <v>34868</v>
       </c>
       <c r="S28" s="6">
-        <v>303</v>
+        <v>1889</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -2571,16 +2576,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="9">
-        <v>0.59027777777777779</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D29" s="10">
-        <v>-304</v>
+        <v>-318</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="10">
         <v>10.58</v>
@@ -2589,40 +2594,40 @@
         <v>10.58</v>
       </c>
       <c r="H29" s="10">
-        <v>10.58</v>
+        <v>10.56</v>
       </c>
       <c r="I29" s="10">
-        <v>10.58</v>
+        <v>10.56</v>
       </c>
       <c r="J29" s="10">
-        <v>11.316407968</v>
+        <v>11.439095566000001</v>
       </c>
       <c r="K29" s="10">
-        <v>10.653613460000001</v>
+        <v>10.877912153</v>
       </c>
       <c r="L29" s="10">
-        <v>10.580128246999999</v>
+        <v>10.741131861</v>
       </c>
       <c r="M29" s="10">
-        <v>10.68</v>
+        <v>10.85</v>
       </c>
       <c r="N29" s="10">
-        <v>10.45</v>
+        <v>10.56</v>
       </c>
       <c r="O29" s="10">
-        <v>10.71</v>
+        <v>11.19</v>
       </c>
       <c r="P29" s="10">
-        <v>10.86</v>
+        <v>10.97</v>
       </c>
       <c r="Q29" s="10">
-        <v>10.567331841</v>
+        <v>10.655761597</v>
       </c>
       <c r="R29" s="10">
-        <v>48112</v>
+        <v>35223</v>
       </c>
       <c r="S29" s="10">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
@@ -2633,58 +2638,58 @@
         <v>22</v>
       </c>
       <c r="B30" s="5">
-        <v>0.58680555555555558</v>
+        <v>0.53125</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D30" s="6">
-        <v>-305</v>
+        <v>-317</v>
       </c>
       <c r="E30" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="6">
-        <v>10.63</v>
+        <v>10.56</v>
       </c>
       <c r="G30" s="6">
-        <v>10.63</v>
+        <v>10.56</v>
       </c>
       <c r="H30" s="6">
-        <v>10.5319</v>
+        <v>10.55</v>
       </c>
       <c r="I30" s="6">
-        <v>10.5319</v>
+        <v>10.55</v>
       </c>
       <c r="J30" s="6">
-        <v>11.324635990000001</v>
+        <v>11.429271305</v>
       </c>
       <c r="K30" s="6">
-        <v>10.661362244999999</v>
+        <v>10.846682424000001</v>
       </c>
       <c r="L30" s="6">
-        <v>10.580160308</v>
+        <v>10.702905489000001</v>
       </c>
       <c r="M30" s="6">
-        <v>10.7</v>
+        <v>10.87</v>
       </c>
       <c r="N30" s="6">
-        <v>10.45</v>
+        <v>10.51</v>
       </c>
       <c r="O30" s="6">
-        <v>10.73</v>
+        <v>11.16</v>
       </c>
       <c r="P30" s="6">
-        <v>10.86</v>
+        <v>10.96</v>
       </c>
       <c r="Q30" s="6">
-        <v>10.558886402000001</v>
+        <v>10.613456958</v>
       </c>
       <c r="R30" s="6">
-        <v>48012</v>
+        <v>35682</v>
       </c>
       <c r="S30" s="6">
-        <v>1800</v>
+        <v>459</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -2695,58 +2700,58 @@
         <v>22</v>
       </c>
       <c r="B31" s="9">
-        <v>0.58333333333333337</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D31" s="10">
-        <v>-306</v>
+        <v>-316</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="10">
-        <v>10.6158</v>
+        <v>10.69</v>
       </c>
       <c r="G31" s="10">
-        <v>10.6158</v>
+        <v>10.69</v>
       </c>
       <c r="H31" s="10">
-        <v>10.6158</v>
+        <v>10.635</v>
       </c>
       <c r="I31" s="10">
-        <v>10.6158</v>
+        <v>10.635</v>
       </c>
       <c r="J31" s="10">
-        <v>11.333493375</v>
+        <v>11.420494827000001</v>
       </c>
       <c r="K31" s="10">
-        <v>10.674989849999999</v>
+        <v>10.826522193000001</v>
       </c>
       <c r="L31" s="10">
-        <v>10.592225385000001</v>
+        <v>10.689324391</v>
       </c>
       <c r="M31" s="10">
-        <v>10.7</v>
+        <v>10.82</v>
       </c>
       <c r="N31" s="10">
-        <v>10.46</v>
+        <v>10.5</v>
       </c>
       <c r="O31" s="10">
-        <v>10.75</v>
+        <v>11.12</v>
       </c>
       <c r="P31" s="10">
-        <v>10.87</v>
+        <v>10.96</v>
       </c>
       <c r="Q31" s="10">
-        <v>10.576877336000001</v>
+        <v>10.622074175</v>
       </c>
       <c r="R31" s="10">
-        <v>46212</v>
+        <v>36382</v>
       </c>
       <c r="S31" s="10">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
@@ -2757,58 +2762,58 @@
         <v>22</v>
       </c>
       <c r="B32" s="5">
-        <v>0.57638888888888895</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
-        <v>-307</v>
+        <v>-315</v>
       </c>
       <c r="E32" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F32" s="6">
-        <v>10.47</v>
+        <v>10.7</v>
       </c>
       <c r="G32" s="6">
-        <v>10.55</v>
+        <v>10.7</v>
       </c>
       <c r="H32" s="6">
-        <v>10.47</v>
+        <v>10.67</v>
       </c>
       <c r="I32" s="6">
-        <v>10.55</v>
+        <v>10.67</v>
       </c>
       <c r="J32" s="6">
-        <v>11.341512295999999</v>
+        <v>11.412202066000001</v>
       </c>
       <c r="K32" s="6">
-        <v>10.681220359999999</v>
+        <v>10.811615317999999</v>
       </c>
       <c r="L32" s="6">
-        <v>10.586331732</v>
+        <v>10.685459513</v>
       </c>
       <c r="M32" s="6">
-        <v>10.69</v>
+        <v>10.76</v>
       </c>
       <c r="N32" s="6">
-        <v>10.45</v>
+        <v>10.53</v>
       </c>
       <c r="O32" s="6">
-        <v>10.79</v>
+        <v>11.06</v>
       </c>
       <c r="P32" s="6">
-        <v>10.87</v>
+        <v>10.95</v>
       </c>
       <c r="Q32" s="6">
-        <v>10.550928894</v>
+        <v>10.641244505</v>
       </c>
       <c r="R32" s="6">
-        <v>46012</v>
+        <v>36761</v>
       </c>
       <c r="S32" s="6">
-        <v>2258</v>
+        <v>379</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -2819,58 +2824,58 @@
         <v>22</v>
       </c>
       <c r="B33" s="9">
-        <v>0.57291666666666663</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D33" s="10">
-        <v>-308</v>
+        <v>-314</v>
       </c>
       <c r="E33" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F33" s="10">
-        <v>10.56</v>
+        <v>10.639099999999999</v>
       </c>
       <c r="G33" s="10">
-        <v>10.6</v>
+        <v>10.65</v>
       </c>
       <c r="H33" s="10">
-        <v>10.45</v>
+        <v>10.62</v>
       </c>
       <c r="I33" s="10">
-        <v>10.45</v>
+        <v>10.65</v>
       </c>
       <c r="J33" s="10">
-        <v>11.350356009</v>
+        <v>11.403779944</v>
       </c>
       <c r="K33" s="10">
-        <v>10.695033029999999</v>
+        <v>10.796223382999999</v>
       </c>
       <c r="L33" s="10">
-        <v>10.595414664</v>
+        <v>10.67836761</v>
       </c>
       <c r="M33" s="10">
-        <v>10.71</v>
+        <v>10.74</v>
       </c>
       <c r="N33" s="10">
-        <v>10.46</v>
+        <v>10.53</v>
       </c>
       <c r="O33" s="10">
-        <v>10.82</v>
+        <v>11.01</v>
       </c>
       <c r="P33" s="10">
-        <v>10.89</v>
+        <v>10.95</v>
       </c>
       <c r="Q33" s="10">
-        <v>10.551548156999999</v>
+        <v>10.644746702999999</v>
       </c>
       <c r="R33" s="10">
-        <v>43754</v>
+        <v>37161</v>
       </c>
       <c r="S33" s="10">
-        <v>3688</v>
+        <v>400</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
@@ -2881,58 +2886,58 @@
         <v>22</v>
       </c>
       <c r="B34" s="5">
-        <v>0.56944444444444442</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6">
-        <v>-309</v>
+        <v>-313</v>
       </c>
       <c r="E34" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6">
-        <v>10.565300000000001</v>
+        <v>10.56</v>
       </c>
       <c r="G34" s="6">
-        <v>10.63</v>
+        <v>10.5601</v>
       </c>
       <c r="H34" s="6">
-        <v>10.565300000000001</v>
+        <v>10.56</v>
       </c>
       <c r="I34" s="6">
-        <v>10.63</v>
+        <v>10.5601</v>
       </c>
       <c r="J34" s="6">
-        <v>11.360415851999999</v>
+        <v>11.394457514000001</v>
       </c>
       <c r="K34" s="6">
-        <v>10.720825980000001</v>
+        <v>10.773735442</v>
       </c>
       <c r="L34" s="6">
-        <v>10.631768331</v>
+        <v>10.654714088</v>
       </c>
       <c r="M34" s="6">
-        <v>10.69</v>
+        <v>10.72</v>
       </c>
       <c r="N34" s="6">
-        <v>10.54</v>
+        <v>10.51</v>
       </c>
       <c r="O34" s="6">
-        <v>10.8</v>
+        <v>10.98</v>
       </c>
       <c r="P34" s="6">
-        <v>10.92</v>
+        <v>10.94</v>
       </c>
       <c r="Q34" s="6">
-        <v>10.619246928000001</v>
+        <v>10.610888021999999</v>
       </c>
       <c r="R34" s="6">
-        <v>40066</v>
+        <v>37661</v>
       </c>
       <c r="S34" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -2943,58 +2948,58 @@
         <v>22</v>
       </c>
       <c r="B35" s="9">
-        <v>0.56597222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="10">
-        <v>-310</v>
+        <v>-312</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="10">
-        <v>10.615399999999999</v>
+        <v>10.560600000000001</v>
       </c>
       <c r="G35" s="10">
-        <v>10.615399999999999</v>
+        <v>10.560600000000001</v>
       </c>
       <c r="H35" s="10">
-        <v>10.615399999999999</v>
+        <v>10.560600000000001</v>
       </c>
       <c r="I35" s="10">
-        <v>10.615399999999999</v>
+        <v>10.560600000000001</v>
       </c>
       <c r="J35" s="10">
-        <v>11.368576922999999</v>
+        <v>11.385243619000001</v>
       </c>
       <c r="K35" s="10">
-        <v>10.73038661</v>
+        <v>10.753436828</v>
       </c>
       <c r="L35" s="10">
-        <v>10.632210412999999</v>
+        <v>10.635891271</v>
       </c>
       <c r="M35" s="10">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="N35" s="10">
-        <v>10.54</v>
+        <v>10.51</v>
       </c>
       <c r="O35" s="10">
-        <v>10.87</v>
+        <v>10.93</v>
       </c>
       <c r="P35" s="10">
         <v>10.93</v>
       </c>
       <c r="Q35" s="10">
-        <v>10.612078213</v>
+        <v>10.590772812999999</v>
       </c>
       <c r="R35" s="10">
-        <v>39066</v>
+        <v>38661</v>
       </c>
       <c r="S35" s="10">
-        <v>305</v>
+        <v>1000</v>
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -3067,58 +3072,58 @@
         <v>22</v>
       </c>
       <c r="B37" s="9">
-        <v>0.55555555555555558</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="10">
-        <v>-312</v>
+        <v>-310</v>
       </c>
       <c r="E37" s="10">
         <v>0</v>
       </c>
       <c r="F37" s="10">
-        <v>10.560600000000001</v>
+        <v>10.615399999999999</v>
       </c>
       <c r="G37" s="10">
-        <v>10.560600000000001</v>
+        <v>10.615399999999999</v>
       </c>
       <c r="H37" s="10">
-        <v>10.560600000000001</v>
+        <v>10.615399999999999</v>
       </c>
       <c r="I37" s="10">
-        <v>10.560600000000001</v>
+        <v>10.615399999999999</v>
       </c>
       <c r="J37" s="10">
-        <v>11.385243619000001</v>
+        <v>11.368576922999999</v>
       </c>
       <c r="K37" s="10">
-        <v>10.753436828</v>
+        <v>10.73038661</v>
       </c>
       <c r="L37" s="10">
-        <v>10.635891271</v>
+        <v>10.632210412999999</v>
       </c>
       <c r="M37" s="10">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="N37" s="10">
-        <v>10.51</v>
+        <v>10.54</v>
       </c>
       <c r="O37" s="10">
-        <v>10.93</v>
+        <v>10.87</v>
       </c>
       <c r="P37" s="10">
         <v>10.93</v>
       </c>
       <c r="Q37" s="10">
-        <v>10.590772812999999</v>
+        <v>10.612078213</v>
       </c>
       <c r="R37" s="10">
-        <v>38661</v>
+        <v>39066</v>
       </c>
       <c r="S37" s="10">
-        <v>1000</v>
+        <v>305</v>
       </c>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -3129,58 +3134,58 @@
         <v>22</v>
       </c>
       <c r="B38" s="5">
-        <v>0.55208333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
-        <v>-313</v>
+        <v>-309</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38" s="6">
-        <v>10.56</v>
+        <v>10.565300000000001</v>
       </c>
       <c r="G38" s="6">
-        <v>10.5601</v>
+        <v>10.63</v>
       </c>
       <c r="H38" s="6">
-        <v>10.56</v>
+        <v>10.565300000000001</v>
       </c>
       <c r="I38" s="6">
-        <v>10.5601</v>
+        <v>10.63</v>
       </c>
       <c r="J38" s="6">
-        <v>11.394457514000001</v>
+        <v>11.360415851999999</v>
       </c>
       <c r="K38" s="6">
-        <v>10.773735442</v>
+        <v>10.720825980000001</v>
       </c>
       <c r="L38" s="6">
-        <v>10.654714088</v>
+        <v>10.631768331</v>
       </c>
       <c r="M38" s="6">
-        <v>10.72</v>
+        <v>10.69</v>
       </c>
       <c r="N38" s="6">
-        <v>10.51</v>
+        <v>10.54</v>
       </c>
       <c r="O38" s="6">
-        <v>10.98</v>
+        <v>10.8</v>
       </c>
       <c r="P38" s="6">
-        <v>10.94</v>
+        <v>10.92</v>
       </c>
       <c r="Q38" s="6">
-        <v>10.610888021999999</v>
+        <v>10.619246928000001</v>
       </c>
       <c r="R38" s="6">
-        <v>37661</v>
+        <v>40066</v>
       </c>
       <c r="S38" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
@@ -3191,58 +3196,58 @@
         <v>22</v>
       </c>
       <c r="B39" s="9">
-        <v>0.54861111111111105</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" s="10">
-        <v>-314</v>
+        <v>-308</v>
       </c>
       <c r="E39" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F39" s="10">
-        <v>10.639099999999999</v>
+        <v>10.56</v>
       </c>
       <c r="G39" s="10">
-        <v>10.65</v>
+        <v>10.6</v>
       </c>
       <c r="H39" s="10">
-        <v>10.62</v>
+        <v>10.45</v>
       </c>
       <c r="I39" s="10">
-        <v>10.65</v>
+        <v>10.45</v>
       </c>
       <c r="J39" s="10">
-        <v>11.403779944</v>
+        <v>11.350356009</v>
       </c>
       <c r="K39" s="10">
-        <v>10.796223382999999</v>
+        <v>10.695033029999999</v>
       </c>
       <c r="L39" s="10">
-        <v>10.67836761</v>
+        <v>10.595414664</v>
       </c>
       <c r="M39" s="10">
-        <v>10.74</v>
+        <v>10.71</v>
       </c>
       <c r="N39" s="10">
-        <v>10.53</v>
+        <v>10.46</v>
       </c>
       <c r="O39" s="10">
-        <v>11.01</v>
+        <v>10.82</v>
       </c>
       <c r="P39" s="10">
-        <v>10.95</v>
+        <v>10.89</v>
       </c>
       <c r="Q39" s="10">
-        <v>10.644746702999999</v>
+        <v>10.551548156999999</v>
       </c>
       <c r="R39" s="10">
-        <v>37161</v>
+        <v>43754</v>
       </c>
       <c r="S39" s="10">
-        <v>400</v>
+        <v>3688</v>
       </c>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -3253,58 +3258,58 @@
         <v>22</v>
       </c>
       <c r="B40" s="5">
-        <v>0.54513888888888895</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D40" s="6">
-        <v>-315</v>
+        <v>-307</v>
       </c>
       <c r="E40" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6">
-        <v>10.7</v>
+        <v>10.47</v>
       </c>
       <c r="G40" s="6">
-        <v>10.7</v>
+        <v>10.55</v>
       </c>
       <c r="H40" s="6">
-        <v>10.67</v>
+        <v>10.47</v>
       </c>
       <c r="I40" s="6">
-        <v>10.67</v>
+        <v>10.55</v>
       </c>
       <c r="J40" s="6">
-        <v>11.412202066000001</v>
+        <v>11.341512295999999</v>
       </c>
       <c r="K40" s="6">
-        <v>10.811615317999999</v>
+        <v>10.681220359999999</v>
       </c>
       <c r="L40" s="6">
-        <v>10.685459513</v>
+        <v>10.586331732</v>
       </c>
       <c r="M40" s="6">
-        <v>10.76</v>
+        <v>10.69</v>
       </c>
       <c r="N40" s="6">
-        <v>10.53</v>
+        <v>10.45</v>
       </c>
       <c r="O40" s="6">
-        <v>11.06</v>
+        <v>10.79</v>
       </c>
       <c r="P40" s="6">
-        <v>10.95</v>
+        <v>10.87</v>
       </c>
       <c r="Q40" s="6">
-        <v>10.641244505</v>
+        <v>10.550928894</v>
       </c>
       <c r="R40" s="6">
-        <v>36761</v>
+        <v>46012</v>
       </c>
       <c r="S40" s="6">
-        <v>379</v>
+        <v>2258</v>
       </c>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
@@ -3315,58 +3320,58 @@
         <v>22</v>
       </c>
       <c r="B41" s="9">
-        <v>0.53819444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D41" s="10">
-        <v>-316</v>
+        <v>-306</v>
       </c>
       <c r="E41" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41" s="10">
-        <v>10.69</v>
+        <v>10.6158</v>
       </c>
       <c r="G41" s="10">
-        <v>10.69</v>
+        <v>10.6158</v>
       </c>
       <c r="H41" s="10">
-        <v>10.635</v>
+        <v>10.6158</v>
       </c>
       <c r="I41" s="10">
-        <v>10.635</v>
+        <v>10.6158</v>
       </c>
       <c r="J41" s="10">
-        <v>11.420494827000001</v>
+        <v>11.333493375</v>
       </c>
       <c r="K41" s="10">
-        <v>10.826522193000001</v>
+        <v>10.674989849999999</v>
       </c>
       <c r="L41" s="10">
-        <v>10.689324391</v>
+        <v>10.592225385000001</v>
       </c>
       <c r="M41" s="10">
-        <v>10.82</v>
+        <v>10.7</v>
       </c>
       <c r="N41" s="10">
-        <v>10.5</v>
+        <v>10.46</v>
       </c>
       <c r="O41" s="10">
-        <v>11.12</v>
+        <v>10.75</v>
       </c>
       <c r="P41" s="10">
-        <v>10.96</v>
+        <v>10.87</v>
       </c>
       <c r="Q41" s="10">
-        <v>10.622074175</v>
+        <v>10.576877336000001</v>
       </c>
       <c r="R41" s="10">
-        <v>36382</v>
+        <v>46212</v>
       </c>
       <c r="S41" s="10">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -3377,58 +3382,58 @@
         <v>22</v>
       </c>
       <c r="B42" s="5">
-        <v>0.53125</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D42" s="6">
-        <v>-317</v>
+        <v>-305</v>
       </c>
       <c r="E42" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="6">
-        <v>10.56</v>
+        <v>10.63</v>
       </c>
       <c r="G42" s="6">
-        <v>10.56</v>
+        <v>10.63</v>
       </c>
       <c r="H42" s="6">
-        <v>10.55</v>
+        <v>10.5319</v>
       </c>
       <c r="I42" s="6">
-        <v>10.55</v>
+        <v>10.5319</v>
       </c>
       <c r="J42" s="6">
-        <v>11.429271305</v>
+        <v>11.324635990000001</v>
       </c>
       <c r="K42" s="6">
-        <v>10.846682424000001</v>
+        <v>10.661362244999999</v>
       </c>
       <c r="L42" s="6">
-        <v>10.702905489000001</v>
+        <v>10.580160308</v>
       </c>
       <c r="M42" s="6">
-        <v>10.87</v>
+        <v>10.7</v>
       </c>
       <c r="N42" s="6">
-        <v>10.51</v>
+        <v>10.45</v>
       </c>
       <c r="O42" s="6">
-        <v>11.16</v>
+        <v>10.73</v>
       </c>
       <c r="P42" s="6">
-        <v>10.96</v>
+        <v>10.86</v>
       </c>
       <c r="Q42" s="6">
-        <v>10.613456958</v>
+        <v>10.558886402000001</v>
       </c>
       <c r="R42" s="6">
-        <v>35682</v>
+        <v>48012</v>
       </c>
       <c r="S42" s="6">
-        <v>459</v>
+        <v>1800</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -3439,16 +3444,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="9">
-        <v>0.52777777777777779</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D43" s="10">
-        <v>-318</v>
+        <v>-304</v>
       </c>
       <c r="E43" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="10">
         <v>10.58</v>
@@ -3457,40 +3462,40 @@
         <v>10.58</v>
       </c>
       <c r="H43" s="10">
-        <v>10.56</v>
+        <v>10.58</v>
       </c>
       <c r="I43" s="10">
-        <v>10.56</v>
+        <v>10.58</v>
       </c>
       <c r="J43" s="10">
-        <v>11.439095566000001</v>
+        <v>11.316407968</v>
       </c>
       <c r="K43" s="10">
-        <v>10.877912153</v>
+        <v>10.653613460000001</v>
       </c>
       <c r="L43" s="10">
-        <v>10.741131861</v>
+        <v>10.580128246999999</v>
       </c>
       <c r="M43" s="10">
-        <v>10.85</v>
+        <v>10.68</v>
       </c>
       <c r="N43" s="10">
-        <v>10.56</v>
+        <v>10.45</v>
       </c>
       <c r="O43" s="10">
-        <v>11.19</v>
+        <v>10.71</v>
       </c>
       <c r="P43" s="10">
-        <v>10.97</v>
+        <v>10.86</v>
       </c>
       <c r="Q43" s="10">
-        <v>10.655761597</v>
+        <v>10.567331841</v>
       </c>
       <c r="R43" s="10">
-        <v>35223</v>
+        <v>48112</v>
       </c>
       <c r="S43" s="10">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -3501,58 +3506,58 @@
         <v>22</v>
       </c>
       <c r="B44" s="5">
-        <v>0.52430555555555558</v>
+        <v>0.59375</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D44" s="6">
-        <v>-319</v>
+        <v>-303</v>
       </c>
       <c r="E44" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6">
-        <v>10.700100000000001</v>
+        <v>10.63</v>
       </c>
       <c r="G44" s="6">
-        <v>10.700100000000001</v>
+        <v>10.63</v>
       </c>
       <c r="H44" s="6">
-        <v>10.5601</v>
+        <v>10.617599999999999</v>
       </c>
       <c r="I44" s="6">
-        <v>10.688700000000001</v>
+        <v>10.617599999999999</v>
       </c>
       <c r="J44" s="6">
-        <v>11.448917863</v>
+        <v>11.308686333000001</v>
       </c>
       <c r="K44" s="6">
-        <v>10.91137659</v>
+        <v>10.650183607000001</v>
       </c>
       <c r="L44" s="6">
-        <v>10.786414826</v>
+        <v>10.587622596999999</v>
       </c>
       <c r="M44" s="6">
-        <v>10.92</v>
+        <v>10.68</v>
       </c>
       <c r="N44" s="6">
-        <v>10.59</v>
+        <v>10.45</v>
       </c>
       <c r="O44" s="6">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="P44" s="6">
-        <v>10.97</v>
+        <v>10.85</v>
       </c>
       <c r="Q44" s="6">
-        <v>10.719602661</v>
+        <v>10.587439105</v>
       </c>
       <c r="R44" s="6">
-        <v>34868</v>
+        <v>48415</v>
       </c>
       <c r="S44" s="6">
-        <v>1889</v>
+        <v>303</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -3563,55 +3568,55 @@
         <v>22</v>
       </c>
       <c r="B45" s="9">
-        <v>0.51736111111111105</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D45" s="10">
-        <v>-320</v>
+        <v>-302</v>
       </c>
       <c r="E45" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="10">
-        <v>10.734999999999999</v>
+        <v>10.58</v>
       </c>
       <c r="G45" s="10">
-        <v>10.734999999999999</v>
+        <v>10.58</v>
       </c>
       <c r="H45" s="10">
+        <v>10.525</v>
+      </c>
+      <c r="I45" s="10">
+        <v>10.525</v>
+      </c>
+      <c r="J45" s="10">
+        <v>11.300026816000001</v>
+      </c>
+      <c r="K45" s="10">
+        <v>10.638261357999999</v>
+      </c>
+      <c r="L45" s="10">
+        <v>10.575098078</v>
+      </c>
+      <c r="M45" s="10">
+        <v>10.66</v>
+      </c>
+      <c r="N45" s="10">
+        <v>10.45</v>
+      </c>
+      <c r="O45" s="10">
         <v>10.7</v>
       </c>
-      <c r="I45" s="10">
-        <v>10.7</v>
-      </c>
-      <c r="J45" s="10">
-        <v>11.457411917</v>
-      </c>
-      <c r="K45" s="10">
-        <v>10.934816231999999</v>
-      </c>
-      <c r="L45" s="10">
-        <v>10.810843533</v>
-      </c>
-      <c r="M45" s="10">
-        <v>10.94</v>
-      </c>
-      <c r="N45" s="10">
-        <v>10.62</v>
-      </c>
-      <c r="O45" s="10">
-        <v>11.22</v>
-      </c>
       <c r="P45" s="10">
-        <v>10.99</v>
+        <v>10.85</v>
       </c>
       <c r="Q45" s="10">
-        <v>10.740204435000001</v>
+        <v>10.562463463</v>
       </c>
       <c r="R45" s="10">
-        <v>32979</v>
+        <v>48715</v>
       </c>
       <c r="S45" s="10">
         <v>300</v>
@@ -3625,58 +3630,58 @@
         <v>22</v>
       </c>
       <c r="B46" s="5">
-        <v>0.51388888888888895</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D46" s="6">
-        <v>-321</v>
+        <v>-301</v>
       </c>
       <c r="E46" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="G46" s="6">
-        <v>10.864000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H46" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="I46" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="J46" s="6">
+        <v>11.290634254</v>
+      </c>
+      <c r="K46" s="6">
+        <v>10.620331705</v>
+      </c>
+      <c r="L46" s="6">
+        <v>10.550078462</v>
+      </c>
+      <c r="M46" s="6">
+        <v>10.66</v>
+      </c>
+      <c r="N46" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="O46" s="6">
         <v>10.71</v>
       </c>
-      <c r="I46" s="6">
-        <v>10.71</v>
-      </c>
-      <c r="J46" s="6">
-        <v>11.465874619999999</v>
-      </c>
-      <c r="K46" s="6">
-        <v>10.95953373</v>
-      </c>
-      <c r="L46" s="6">
-        <v>10.838554415999999</v>
-      </c>
-      <c r="M46" s="6">
-        <v>10.97</v>
-      </c>
-      <c r="N46" s="6">
-        <v>10.64</v>
-      </c>
-      <c r="O46" s="6">
-        <v>11.27</v>
-      </c>
       <c r="P46" s="6">
-        <v>10.99</v>
+        <v>10.85</v>
       </c>
       <c r="Q46" s="6">
-        <v>10.767007391</v>
+        <v>10.517478078</v>
       </c>
       <c r="R46" s="6">
-        <v>32679</v>
+        <v>49214</v>
       </c>
       <c r="S46" s="6">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -3687,58 +3692,58 @@
         <v>22</v>
       </c>
       <c r="B47" s="9">
-        <v>0.51041666666666663</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D47" s="10">
-        <v>-322</v>
+        <v>-300</v>
       </c>
       <c r="E47" s="10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F47" s="10">
-        <v>10.810499999999999</v>
+        <v>10.42</v>
       </c>
       <c r="G47" s="10">
-        <v>10.84</v>
+        <v>10.42</v>
       </c>
       <c r="H47" s="10">
-        <v>10.8</v>
+        <v>10.25</v>
       </c>
       <c r="I47" s="10">
-        <v>10.8</v>
+        <v>10.25</v>
       </c>
       <c r="J47" s="10">
-        <v>11.474320147</v>
+        <v>11.279135533</v>
       </c>
       <c r="K47" s="10">
-        <v>10.985800438</v>
+        <v>10.585062019</v>
       </c>
       <c r="L47" s="10">
-        <v>10.870693019999999</v>
+        <v>10.49006277</v>
       </c>
       <c r="M47" s="10">
-        <v>11.01</v>
+        <v>10.74</v>
       </c>
       <c r="N47" s="10">
-        <v>10.67</v>
+        <v>10.28</v>
       </c>
       <c r="O47" s="10">
-        <v>11.27</v>
+        <v>10.76</v>
       </c>
       <c r="P47" s="10">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="Q47" s="10">
-        <v>10.805012318999999</v>
+        <v>10.410486847</v>
       </c>
       <c r="R47" s="10">
-        <v>32117</v>
+        <v>53383</v>
       </c>
       <c r="S47" s="10">
-        <v>800</v>
+        <v>4169</v>
       </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
@@ -3749,1062 +3754,1050 @@
         <v>22</v>
       </c>
       <c r="B48" s="5">
-        <v>0.50347222222222221</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D48" s="6">
-        <v>-323</v>
+        <v>-299</v>
       </c>
       <c r="E48" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="6">
-        <v>10.803100000000001</v>
+        <v>10.267799999999999</v>
       </c>
       <c r="G48" s="6">
-        <v>10.803100000000001</v>
+        <v>10.32</v>
       </c>
       <c r="H48" s="6">
-        <v>10.6997</v>
+        <v>10.2515</v>
       </c>
       <c r="I48" s="6">
-        <v>10.795199999999999</v>
+        <v>10.32</v>
       </c>
       <c r="J48" s="6">
-        <v>11.48185445</v>
+        <v>11.268537350000001</v>
       </c>
       <c r="K48" s="6">
-        <v>11.005358379</v>
+        <v>10.559818017</v>
       </c>
       <c r="L48" s="6">
-        <v>10.888366273999999</v>
+        <v>10.456050216</v>
       </c>
       <c r="M48" s="6">
-        <v>11.05</v>
+        <v>10.71</v>
       </c>
       <c r="N48" s="6">
-        <v>10.68</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="O48" s="6">
-        <v>11.3</v>
+        <v>10.76</v>
       </c>
       <c r="P48" s="6">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="Q48" s="6">
-        <v>10.808353865000001</v>
+        <v>10.374292108000001</v>
       </c>
       <c r="R48" s="6">
-        <v>31317</v>
+        <v>54224</v>
       </c>
       <c r="S48" s="6">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="9">
-        <v>0.5</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D49" s="10">
-        <v>-324</v>
+        <v>-298</v>
       </c>
       <c r="E49" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F49" s="10">
-        <v>10.870100000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G49" s="10">
-        <v>10.870100000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H49" s="10">
-        <v>10.6701</v>
+        <v>10.3</v>
       </c>
       <c r="I49" s="10">
-        <v>10.6701</v>
+        <v>10.3</v>
       </c>
       <c r="J49" s="10">
-        <v>11.489526567</v>
+        <v>11.25783528</v>
       </c>
       <c r="K49" s="10">
-        <v>11.027480313</v>
+        <v>10.535073444</v>
       </c>
       <c r="L49" s="10">
-        <v>10.911657843</v>
+        <v>10.424840173</v>
       </c>
       <c r="M49" s="10">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="N49" s="10">
-        <v>10.69</v>
+        <v>10.17</v>
       </c>
       <c r="O49" s="10">
-        <v>11.33</v>
+        <v>10.75</v>
       </c>
       <c r="P49" s="10">
-        <v>11.01</v>
+        <v>10.76</v>
       </c>
       <c r="Q49" s="10">
-        <v>10.817123108000001</v>
+        <v>10.344575265</v>
       </c>
       <c r="R49" s="10">
-        <v>30491</v>
+        <v>58665</v>
       </c>
       <c r="S49" s="10">
-        <v>7900</v>
+        <v>4441</v>
       </c>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="5">
-        <v>0.49652777777777773</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D50" s="6">
-        <v>-325</v>
+        <v>-297</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" s="6">
-        <v>10.92</v>
+        <v>10.34</v>
       </c>
       <c r="G50" s="6">
-        <v>10.92</v>
+        <v>10.34</v>
       </c>
       <c r="H50" s="6">
-        <v>10.92</v>
+        <v>10.3</v>
       </c>
       <c r="I50" s="6">
-        <v>10.92</v>
+        <v>10.3188</v>
       </c>
       <c r="J50" s="6">
-        <v>11.498682171</v>
+        <v>11.2474592</v>
       </c>
       <c r="K50" s="6">
-        <v>11.065099293999999</v>
+        <v>10.514475973</v>
       </c>
       <c r="L50" s="6">
-        <v>10.972047304</v>
+        <v>10.403632138000001</v>
       </c>
       <c r="M50" s="6">
-        <v>11.11</v>
+        <v>10.64</v>
       </c>
       <c r="N50" s="6">
-        <v>10.8</v>
+        <v>10.15</v>
       </c>
       <c r="O50" s="6">
-        <v>11.29</v>
+        <v>10.75</v>
       </c>
       <c r="P50" s="6">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="Q50" s="6">
-        <v>10.915138513</v>
+        <v>10.334265158999999</v>
       </c>
       <c r="R50" s="6">
-        <v>22591</v>
+        <v>59065</v>
       </c>
       <c r="S50" s="6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="7"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="9">
-        <v>0.49305555555555558</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D51" s="10">
-        <v>-326</v>
+        <v>-296</v>
       </c>
       <c r="E51" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51" s="10">
-        <v>10.85</v>
+        <v>10.28</v>
       </c>
       <c r="G51" s="10">
-        <v>10.85</v>
+        <v>10.3</v>
       </c>
       <c r="H51" s="10">
-        <v>10.85</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I51" s="10">
-        <v>10.85</v>
+        <v>10.2576</v>
       </c>
       <c r="J51" s="10">
-        <v>11.505147893</v>
+        <v>11.236521528999999</v>
       </c>
       <c r="K51" s="10">
-        <v>11.080372904000001</v>
+        <v>10.490011595</v>
       </c>
       <c r="L51" s="10">
-        <v>10.98505913</v>
+        <v>10.374425711000001</v>
       </c>
       <c r="M51" s="10">
-        <v>11.15</v>
+        <v>10.53</v>
       </c>
       <c r="N51" s="10">
-        <v>10.81</v>
+        <v>10.16</v>
       </c>
       <c r="O51" s="10">
-        <v>11.29</v>
+        <v>10.76</v>
       </c>
       <c r="P51" s="10">
-        <v>11.1</v>
+        <v>10.72</v>
       </c>
       <c r="Q51" s="10">
-        <v>10.911897522</v>
+        <v>10.303599094999999</v>
       </c>
       <c r="R51" s="10">
-        <v>22291</v>
+        <v>63712</v>
       </c>
       <c r="S51" s="10">
-        <v>564</v>
+        <v>4647</v>
       </c>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="5">
-        <v>0.48958333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D52" s="6">
-        <v>-327</v>
+        <v>-295</v>
       </c>
       <c r="E52" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52" s="6">
-        <v>10.881500000000001</v>
+        <v>10.27</v>
       </c>
       <c r="G52" s="6">
-        <v>10.881500000000001</v>
+        <v>10.27</v>
       </c>
       <c r="H52" s="6">
-        <v>10.83</v>
+        <v>10.27</v>
       </c>
       <c r="I52" s="6">
-        <v>10.881399999999999</v>
+        <v>10.27</v>
       </c>
       <c r="J52" s="6">
-        <v>11.512467981</v>
+        <v>11.225841732999999</v>
       </c>
       <c r="K52" s="6">
-        <v>11.104622683000001</v>
+        <v>10.469058110000001</v>
       </c>
       <c r="L52" s="6">
-        <v>11.018823912</v>
+        <v>10.353540568</v>
       </c>
       <c r="M52" s="6">
-        <v>11.17</v>
+        <v>10.43</v>
       </c>
       <c r="N52" s="6">
-        <v>10.86</v>
+        <v>10.19</v>
       </c>
       <c r="O52" s="6">
-        <v>11.28</v>
+        <v>10.74</v>
       </c>
       <c r="P52" s="6">
-        <v>11.11</v>
+        <v>10.72</v>
       </c>
       <c r="Q52" s="6">
-        <v>10.953162537000001</v>
+        <v>10.290159457</v>
       </c>
       <c r="R52" s="6">
-        <v>21727</v>
+        <v>64612</v>
       </c>
       <c r="S52" s="6">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="7"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="9">
-        <v>0.4861111111111111</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D53" s="10">
-        <v>-328</v>
+        <v>-294</v>
       </c>
       <c r="E53" s="10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F53" s="10">
-        <v>10.83</v>
+        <v>10.251200000000001</v>
       </c>
       <c r="G53" s="10">
-        <v>10.9899</v>
+        <v>10.267799999999999</v>
       </c>
       <c r="H53" s="10">
-        <v>10.83</v>
+        <v>10.228300000000001</v>
       </c>
       <c r="I53" s="10">
-        <v>10.960599999999999</v>
+        <v>10.228300000000001</v>
       </c>
       <c r="J53" s="10">
-        <v>11.519519020000001</v>
+        <v>11.214819173</v>
       </c>
       <c r="K53" s="10">
-        <v>11.128119806999999</v>
+        <v>10.446128765999999</v>
       </c>
       <c r="L53" s="10">
-        <v>11.053179889999999</v>
+        <v>10.328492454999999</v>
       </c>
       <c r="M53" s="10">
-        <v>11.17</v>
+        <v>10.34</v>
       </c>
       <c r="N53" s="10">
-        <v>10.93</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="O53" s="10">
-        <v>11.29</v>
+        <v>10.72</v>
       </c>
       <c r="P53" s="10">
-        <v>11.11</v>
+        <v>10.71</v>
       </c>
       <c r="Q53" s="10">
-        <v>11.001004228999999</v>
+        <v>10.265415674</v>
       </c>
       <c r="R53" s="10">
-        <v>21427</v>
+        <v>65581</v>
       </c>
       <c r="S53" s="10">
-        <v>700</v>
+        <v>969</v>
       </c>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="5">
-        <v>0.4826388888888889</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D54" s="6">
-        <v>-329</v>
+        <v>-293</v>
       </c>
       <c r="E54" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="6">
-        <v>11.031000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="G54" s="6">
-        <v>11.04</v>
+        <v>10.28</v>
       </c>
       <c r="H54" s="6">
-        <v>10.96</v>
+        <v>10.24</v>
       </c>
       <c r="I54" s="6">
-        <v>10.96</v>
+        <v>10.2796</v>
       </c>
       <c r="J54" s="6">
-        <v>11.525763926</v>
+        <v>11.204485259</v>
       </c>
       <c r="K54" s="6">
-        <v>11.145753471000001</v>
+        <v>10.430268883</v>
       </c>
       <c r="L54" s="6">
-        <v>11.076324863</v>
+        <v>10.318713964000001</v>
       </c>
       <c r="M54" s="6">
-        <v>11.17</v>
+        <v>10.34</v>
       </c>
       <c r="N54" s="6">
-        <v>10.97</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="O54" s="6">
-        <v>11.29</v>
+        <v>10.69</v>
       </c>
       <c r="P54" s="6">
-        <v>11.12</v>
+        <v>10.7</v>
       </c>
       <c r="Q54" s="6">
-        <v>11.027940381000001</v>
+        <v>10.271089405</v>
       </c>
       <c r="R54" s="6">
-        <v>20727</v>
+        <v>67328</v>
       </c>
       <c r="S54" s="6">
-        <v>2487</v>
+        <v>1747</v>
       </c>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="7"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="9">
-        <v>0.47569444444444442</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D55" s="10">
-        <v>-330</v>
+        <v>-292</v>
       </c>
       <c r="E55" s="10">
         <v>0</v>
       </c>
       <c r="F55" s="10">
-        <v>11.03</v>
+        <v>10.2582</v>
       </c>
       <c r="G55" s="10">
-        <v>11.030099999999999</v>
+        <v>10.2582</v>
       </c>
       <c r="H55" s="10">
-        <v>11.03</v>
+        <v>10.2582</v>
       </c>
       <c r="I55" s="10">
-        <v>11.030099999999999</v>
+        <v>10.2582</v>
       </c>
       <c r="J55" s="10">
-        <v>11.532085309999999</v>
+        <v>11.194029068000001</v>
       </c>
       <c r="K55" s="10">
-        <v>11.165306468000001</v>
+        <v>10.413881371</v>
       </c>
       <c r="L55" s="10">
-        <v>11.105406079</v>
+        <v>10.306611171</v>
       </c>
       <c r="M55" s="10">
-        <v>11.23</v>
+        <v>10.33</v>
       </c>
       <c r="N55" s="10">
-        <v>10.99</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="O55" s="10">
-        <v>11.28</v>
+        <v>10.68</v>
       </c>
       <c r="P55" s="10">
-        <v>11.14</v>
+        <v>10.68</v>
       </c>
       <c r="Q55" s="10">
-        <v>11.073233969</v>
+        <v>10.265933643</v>
       </c>
       <c r="R55" s="10">
-        <v>18240</v>
+        <v>70304</v>
       </c>
       <c r="S55" s="10">
-        <v>400</v>
+        <v>2976</v>
       </c>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="5">
-        <v>0.47222222222222227</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D56" s="6">
-        <v>-331</v>
+        <v>-291</v>
       </c>
       <c r="E56" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F56" s="6">
-        <v>11.030099999999999</v>
+        <v>10.25</v>
       </c>
       <c r="G56" s="6">
-        <v>11.103400000000001</v>
+        <v>10.25</v>
       </c>
       <c r="H56" s="6">
-        <v>11.030099999999999</v>
+        <v>10.25</v>
       </c>
       <c r="I56" s="6">
-        <v>11.103400000000001</v>
+        <v>10.25</v>
       </c>
       <c r="J56" s="6">
-        <v>11.537694085</v>
+        <v>11.183597808</v>
       </c>
       <c r="K56" s="6">
-        <v>11.179538728000001</v>
+        <v>10.398273621</v>
       </c>
       <c r="L56" s="6">
-        <v>11.124232598000001</v>
+        <v>10.295288937</v>
       </c>
       <c r="M56" s="6">
-        <v>11.23</v>
+        <v>10.32</v>
       </c>
       <c r="N56" s="6">
-        <v>11</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="O56" s="6">
-        <v>11.29</v>
+        <v>10.66</v>
       </c>
       <c r="P56" s="6">
-        <v>11.14</v>
+        <v>10.68</v>
       </c>
       <c r="Q56" s="6">
-        <v>11.101989948</v>
+        <v>10.259560186</v>
       </c>
       <c r="R56" s="6">
-        <v>17840</v>
+        <v>70504</v>
       </c>
       <c r="S56" s="6">
-        <v>1045</v>
+        <v>200</v>
       </c>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="7"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="9">
-        <v>0.46875</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D57" s="10">
-        <v>-332</v>
+        <v>-290</v>
       </c>
       <c r="E57" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="10">
-        <v>11.06</v>
+        <v>10.34</v>
       </c>
       <c r="G57" s="10">
-        <v>11.075100000000001</v>
+        <v>10.34</v>
       </c>
       <c r="H57" s="10">
-        <v>11.06</v>
+        <v>10.34</v>
       </c>
       <c r="I57" s="10">
-        <v>11.075100000000001</v>
+        <v>10.34</v>
       </c>
       <c r="J57" s="10">
-        <v>11.542546532999999</v>
+        <v>11.174276284999999</v>
       </c>
       <c r="K57" s="10">
-        <v>11.187553331</v>
+        <v>10.392723752</v>
       </c>
       <c r="L57" s="10">
-        <v>11.129440748</v>
+        <v>10.304231149</v>
       </c>
       <c r="M57" s="10">
-        <v>11.25</v>
+        <v>10.33</v>
       </c>
       <c r="N57" s="10">
-        <v>11</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="O57" s="10">
-        <v>11.31</v>
+        <v>10.62</v>
       </c>
       <c r="P57" s="10">
-        <v>11.14</v>
+        <v>10.68</v>
       </c>
       <c r="Q57" s="10">
-        <v>11.101049913000001</v>
+        <v>10.291736111000001</v>
       </c>
       <c r="R57" s="10">
-        <v>16795</v>
+        <v>71204</v>
       </c>
       <c r="S57" s="10">
-        <v>270</v>
+        <v>700</v>
       </c>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="11"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="5">
-        <v>0.46527777777777773</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D58" s="6">
-        <v>-333</v>
+        <v>-289</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="6">
-        <v>11.11</v>
+        <v>10.32</v>
       </c>
       <c r="G58" s="6">
-        <v>11.11</v>
+        <v>10.32</v>
       </c>
       <c r="H58" s="6">
-        <v>11.1</v>
+        <v>10.28</v>
       </c>
       <c r="I58" s="6">
-        <v>11.1</v>
+        <v>10.28</v>
       </c>
       <c r="J58" s="6">
-        <v>11.547769399</v>
+        <v>11.164394779</v>
       </c>
       <c r="K58" s="6">
-        <v>11.199390524</v>
+        <v>10.381988157</v>
       </c>
       <c r="L58" s="6">
-        <v>11.143025935000001</v>
+        <v>10.29938492</v>
       </c>
       <c r="M58" s="6">
-        <v>11.29</v>
+        <v>10.34</v>
       </c>
       <c r="N58" s="6">
-        <v>11.01</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="O58" s="6">
-        <v>11.32</v>
+        <v>10.59</v>
       </c>
       <c r="P58" s="6">
-        <v>11.15</v>
+        <v>10.67</v>
       </c>
       <c r="Q58" s="6">
-        <v>11.118349856</v>
+        <v>10.287041667</v>
       </c>
       <c r="R58" s="6">
-        <v>16525</v>
+        <v>71518</v>
       </c>
       <c r="S58" s="6">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="7"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="9">
-        <v>0.46180555555555558</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D59" s="10">
-        <v>-334</v>
+        <v>-288</v>
       </c>
       <c r="E59" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F59" s="10">
-        <v>11.1075</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G59" s="10">
-        <v>11.1075</v>
+        <v>10.23</v>
       </c>
       <c r="H59" s="10">
-        <v>11.1075</v>
+        <v>10.15</v>
       </c>
       <c r="I59" s="10">
-        <v>11.1075</v>
+        <v>10.15</v>
       </c>
       <c r="J59" s="10">
-        <v>11.552772408999999</v>
+        <v>11.153185997</v>
       </c>
       <c r="K59" s="10">
-        <v>11.209852683999999</v>
+        <v>10.359894046999999</v>
       </c>
       <c r="L59" s="10">
-        <v>11.153782419000001</v>
+        <v>10.269507936</v>
       </c>
       <c r="M59" s="10">
-        <v>11.29</v>
+        <v>10.36</v>
       </c>
       <c r="N59" s="10">
-        <v>11.01</v>
+        <v>10.15</v>
       </c>
       <c r="O59" s="10">
-        <v>11.34</v>
+        <v>10.55</v>
       </c>
       <c r="P59" s="10">
-        <v>11.15</v>
+        <v>10.67</v>
       </c>
       <c r="Q59" s="10">
-        <v>11.130583093</v>
+        <v>10.232225</v>
       </c>
       <c r="R59" s="10">
-        <v>16125</v>
+        <v>72545</v>
       </c>
       <c r="S59" s="10">
-        <v>600</v>
+        <v>1027</v>
       </c>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="5">
-        <v>0.4513888888888889</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D60" s="6">
-        <v>-335</v>
+        <v>-287</v>
       </c>
       <c r="E60" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60" s="6">
-        <v>11.11</v>
+        <v>10.18</v>
       </c>
       <c r="G60" s="6">
-        <v>11.11</v>
+        <v>10.2258</v>
       </c>
       <c r="H60" s="6">
-        <v>11.09</v>
+        <v>10.18</v>
       </c>
       <c r="I60" s="6">
-        <v>11.095000000000001</v>
+        <v>10.2258</v>
       </c>
       <c r="J60" s="6">
-        <v>11.557747519999999</v>
+        <v>11.142938638</v>
       </c>
       <c r="K60" s="6">
-        <v>11.220626651</v>
+        <v>10.347123184999999</v>
       </c>
       <c r="L60" s="6">
-        <v>11.165353023</v>
+        <v>10.260766349000001</v>
       </c>
       <c r="M60" s="6">
-        <v>11.29</v>
+        <v>10.36</v>
       </c>
       <c r="N60" s="6">
-        <v>11</v>
+        <v>10.15</v>
       </c>
       <c r="O60" s="6">
-        <v>11.35</v>
+        <v>10.47</v>
       </c>
       <c r="P60" s="6">
-        <v>11.15</v>
+        <v>10.66</v>
       </c>
       <c r="Q60" s="6">
-        <v>11.145971821</v>
+        <v>10.229654999999999</v>
       </c>
       <c r="R60" s="6">
-        <v>15525</v>
+        <v>73373</v>
       </c>
       <c r="S60" s="6">
-        <v>450</v>
+        <v>828</v>
       </c>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="7"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="9">
-        <v>0.44791666666666669</v>
+        <v>0.65625</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D61" s="10">
-        <v>-336</v>
+        <v>-286</v>
       </c>
       <c r="E61" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F61" s="10">
-        <v>11.25</v>
+        <v>10.23</v>
       </c>
       <c r="G61" s="10">
-        <v>11.25</v>
+        <v>10.2799</v>
       </c>
       <c r="H61" s="10">
-        <v>11.25</v>
+        <v>10.23</v>
       </c>
       <c r="I61" s="10">
-        <v>11.25</v>
+        <v>10.2799</v>
       </c>
       <c r="J61" s="10">
-        <v>11.562917883000001</v>
+        <v>11.1334023</v>
       </c>
       <c r="K61" s="10">
-        <v>11.233850509</v>
+        <v>10.340720977</v>
       </c>
       <c r="L61" s="10">
-        <v>11.182941279</v>
+        <v>10.264593079000001</v>
       </c>
       <c r="M61" s="10">
-        <v>11.3</v>
+        <v>10.36</v>
       </c>
       <c r="N61" s="10">
-        <v>11.02</v>
+        <v>10.15</v>
       </c>
       <c r="O61" s="10">
-        <v>11.37</v>
+        <v>10.4</v>
       </c>
       <c r="P61" s="10">
-        <v>11.15</v>
+        <v>10.65</v>
       </c>
       <c r="Q61" s="10">
-        <v>11.179953036000001</v>
+        <v>10.249753</v>
       </c>
       <c r="R61" s="10">
-        <v>15075</v>
+        <v>74973</v>
       </c>
       <c r="S61" s="10">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="11"/>
-      <c r="W61" t="s">
-        <v>92</v>
-      </c>
-      <c r="X61">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D62" s="6">
-        <v>-337</v>
+        <v>-285</v>
       </c>
       <c r="E62" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F62" s="6">
-        <v>11.18</v>
+        <v>10.19</v>
       </c>
       <c r="G62" s="6">
-        <v>11.22</v>
+        <v>10.19</v>
       </c>
       <c r="H62" s="6">
-        <v>11.0601</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="I62" s="6">
-        <v>11.0601</v>
+        <v>10.1517</v>
       </c>
       <c r="J62" s="6">
-        <v>11.566414172</v>
+        <v>11.12255476</v>
       </c>
       <c r="K62" s="6">
-        <v>11.232150562999999</v>
+        <v>10.322718978999999</v>
       </c>
       <c r="L62" s="6">
-        <v>11.166176599</v>
+        <v>10.242014463</v>
       </c>
       <c r="M62" s="6">
-        <v>11.3</v>
+        <v>10.37</v>
       </c>
       <c r="N62" s="6">
-        <v>11.02</v>
+        <v>10.11</v>
       </c>
       <c r="O62" s="6">
-        <v>11.39</v>
+        <v>10.36</v>
       </c>
       <c r="P62" s="6">
-        <v>11.15</v>
+        <v>10.65</v>
       </c>
       <c r="Q62" s="6">
-        <v>11.133255059</v>
+        <v>10.2105318</v>
       </c>
       <c r="R62" s="6">
-        <v>14575</v>
+        <v>75781</v>
       </c>
       <c r="S62" s="6">
-        <v>570</v>
+        <v>808</v>
       </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="7"/>
-      <c r="W62" t="s">
-        <v>93</v>
-      </c>
-      <c r="X62">
-        <v>11.566414172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="9">
-        <v>0.44097222222222227</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D63" s="10">
-        <v>-338</v>
+        <v>-284</v>
       </c>
       <c r="E63" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F63" s="10">
-        <v>11.18</v>
+        <v>10.16</v>
       </c>
       <c r="G63" s="10">
-        <v>11.18</v>
+        <v>10.201499999999999</v>
       </c>
       <c r="H63" s="10">
-        <v>11.18</v>
+        <v>10.120100000000001</v>
       </c>
       <c r="I63" s="10">
-        <v>11.18</v>
+        <v>10.16</v>
       </c>
       <c r="J63" s="10">
-        <v>11.572071314</v>
+        <v>11.111918795999999</v>
       </c>
       <c r="K63" s="10">
-        <v>11.250261148</v>
+        <v>10.307221933999999</v>
       </c>
       <c r="L63" s="10">
-        <v>11.192695749</v>
+        <v>10.22561157</v>
       </c>
       <c r="M63" s="10">
-        <v>11.3</v>
+        <v>10.36</v>
       </c>
       <c r="N63" s="10">
-        <v>11.06</v>
+        <v>10.09</v>
       </c>
       <c r="O63" s="10">
-        <v>11.4</v>
+        <v>10.37</v>
       </c>
       <c r="P63" s="10">
-        <v>11.15</v>
+        <v>10.62</v>
       </c>
       <c r="Q63" s="10">
-        <v>11.182025099000001</v>
+        <v>10.19031908</v>
       </c>
       <c r="R63" s="10">
-        <v>14005</v>
+        <v>80385</v>
       </c>
       <c r="S63" s="10">
-        <v>500</v>
+        <v>4604</v>
       </c>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="5">
-        <v>0.4201388888888889</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D64" s="6">
-        <v>-339</v>
+        <v>-283</v>
       </c>
       <c r="E64" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>11.22</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G64" s="6">
-        <v>11.2599</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="H64" s="6">
-        <v>11.22</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="I64" s="6">
-        <v>11.2599</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="J64" s="6">
-        <v>11.576451999</v>
+        <v>11.101068865</v>
       </c>
       <c r="K64" s="6">
-        <v>11.257657059</v>
+        <v>10.290343654000001</v>
       </c>
       <c r="L64" s="6">
-        <v>11.195869686</v>
+        <v>10.206489255999999</v>
       </c>
       <c r="M64" s="6">
-        <v>11.32</v>
+        <v>10.31</v>
       </c>
       <c r="N64" s="6">
-        <v>10.99</v>
+        <v>10.08</v>
       </c>
       <c r="O64" s="6">
-        <v>11.47</v>
+        <v>10.37</v>
       </c>
       <c r="P64" s="6">
-        <v>11.15</v>
+        <v>10.6</v>
       </c>
       <c r="Q64" s="6">
-        <v>11.183375164999999</v>
+        <v>10.166191447999999</v>
       </c>
       <c r="R64" s="6">
-        <v>13505</v>
+        <v>84205</v>
       </c>
       <c r="S64" s="6">
-        <v>1938</v>
+        <v>3820</v>
       </c>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
@@ -4815,58 +4808,58 @@
         <v>22</v>
       </c>
       <c r="B65" s="9">
-        <v>0.41666666666666669</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D65" s="10">
-        <v>-340</v>
+        <v>-282</v>
       </c>
       <c r="E65" s="10">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F65" s="10">
-        <v>11.12</v>
+        <v>10.29</v>
       </c>
       <c r="G65" s="10">
-        <v>11.15</v>
+        <v>10.29</v>
       </c>
       <c r="H65" s="10">
-        <v>11.08</v>
+        <v>10.07</v>
       </c>
       <c r="I65" s="10">
-        <v>11.1</v>
+        <v>10.07</v>
       </c>
       <c r="J65" s="10">
-        <v>11.579988892999999</v>
+        <v>11.089675839</v>
       </c>
       <c r="K65" s="10">
-        <v>11.257420959999999</v>
+        <v>10.269358543999999</v>
       </c>
       <c r="L65" s="10">
-        <v>11.179862107</v>
+        <v>10.179191404999999</v>
       </c>
       <c r="M65" s="10">
-        <v>11.3</v>
+        <v>10.29</v>
       </c>
       <c r="N65" s="10">
-        <v>11</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="O65" s="10">
-        <v>11.52</v>
+        <v>10.37</v>
       </c>
       <c r="P65" s="10">
-        <v>11.13</v>
+        <v>10.59</v>
       </c>
       <c r="Q65" s="10">
-        <v>11.132358608000001</v>
+        <v>10.127714869</v>
       </c>
       <c r="R65" s="10">
-        <v>11567</v>
+        <v>84807</v>
       </c>
       <c r="S65" s="10">
-        <v>900</v>
+        <v>602</v>
       </c>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
@@ -4877,58 +4870,58 @@
         <v>22</v>
       </c>
       <c r="B66" s="5">
-        <v>0.41319444444444442</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D66" s="6">
-        <v>-341</v>
+        <v>-281</v>
       </c>
       <c r="E66" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6">
-        <v>11.19</v>
+        <v>10.29</v>
       </c>
       <c r="G66" s="6">
-        <v>11.19</v>
+        <v>10.29</v>
       </c>
       <c r="H66" s="6">
-        <v>11.05</v>
+        <v>10.29</v>
       </c>
       <c r="I66" s="6">
-        <v>11.1</v>
+        <v>10.29</v>
       </c>
       <c r="J66" s="6">
-        <v>11.585351897000001</v>
+        <v>11.080839641000001</v>
       </c>
       <c r="K66" s="6">
-        <v>11.273991586999999</v>
+        <v>10.271324397000001</v>
       </c>
       <c r="L66" s="6">
-        <v>11.199827634</v>
+        <v>10.201353124000001</v>
       </c>
       <c r="M66" s="6">
-        <v>11.33</v>
+        <v>10.33</v>
       </c>
       <c r="N66" s="6">
-        <v>11.01</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="O66" s="6">
-        <v>11.58</v>
+        <v>10.37</v>
       </c>
       <c r="P66" s="6">
-        <v>11.13</v>
+        <v>10.59</v>
       </c>
       <c r="Q66" s="6">
-        <v>11.153931013999999</v>
+        <v>10.192628921000001</v>
       </c>
       <c r="R66" s="6">
-        <v>10667</v>
+        <v>85053</v>
       </c>
       <c r="S66" s="6">
-        <v>8288</v>
+        <v>246</v>
       </c>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
@@ -4939,58 +4932,58 @@
         <v>22</v>
       </c>
       <c r="B67" s="9">
-        <v>0.40625</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D67" s="10">
-        <v>-342</v>
+        <v>-280</v>
       </c>
       <c r="E67" s="10">
         <v>0</v>
       </c>
       <c r="F67" s="10">
-        <v>11.164999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="G67" s="10">
-        <v>11.164999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="H67" s="10">
-        <v>11.164999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="I67" s="10">
-        <v>11.164999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="J67" s="10">
-        <v>11.590774823</v>
+        <v>11.069670143</v>
       </c>
       <c r="K67" s="10">
-        <v>11.292306491</v>
+        <v>10.252150645</v>
       </c>
       <c r="L67" s="10">
-        <v>11.224784543</v>
+        <v>10.175082499</v>
       </c>
       <c r="M67" s="10">
-        <v>11.35</v>
+        <v>10.33</v>
       </c>
       <c r="N67" s="10">
-        <v>11.03</v>
+        <v>10</v>
       </c>
       <c r="O67" s="10">
-        <v>11.63</v>
+        <v>10.37</v>
       </c>
       <c r="P67" s="10">
-        <v>11.19</v>
+        <v>10.59</v>
       </c>
       <c r="Q67" s="10">
-        <v>11.189885023</v>
+        <v>10.143577353</v>
       </c>
       <c r="R67" s="10">
-        <v>2379</v>
+        <v>85253</v>
       </c>
       <c r="S67" s="10">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
@@ -5001,58 +4994,58 @@
         <v>22</v>
       </c>
       <c r="B68" s="5">
-        <v>0.39930555555555558</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D68" s="6">
-        <v>-343</v>
+        <v>-279</v>
       </c>
       <c r="E68" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F68" s="6">
-        <v>11.2</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G68" s="6">
-        <v>11.35</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="H68" s="6">
-        <v>11.100099999999999</v>
+        <v>10.08</v>
       </c>
       <c r="I68" s="6">
-        <v>11.26</v>
+        <v>10.08</v>
       </c>
       <c r="J68" s="6">
-        <v>11.595532084</v>
+        <v>11.058734561</v>
       </c>
       <c r="K68" s="6">
-        <v>11.305707174</v>
+        <v>10.235755345999999</v>
       </c>
       <c r="L68" s="6">
-        <v>11.239730678000001</v>
+        <v>10.156065999000001</v>
       </c>
       <c r="M68" s="6">
-        <v>11.38</v>
+        <v>10.28</v>
       </c>
       <c r="N68" s="6">
-        <v>11.04</v>
+        <v>10</v>
       </c>
       <c r="O68" s="6">
-        <v>11.64</v>
+        <v>10.37</v>
       </c>
       <c r="P68" s="6">
-        <v>11.2</v>
+        <v>10.59</v>
       </c>
       <c r="Q68" s="6">
-        <v>11.206475039000001</v>
+        <v>10.118146412</v>
       </c>
       <c r="R68" s="6">
-        <v>1879</v>
+        <v>85549</v>
       </c>
       <c r="S68" s="6">
-        <v>957</v>
+        <v>296</v>
       </c>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
@@ -5063,58 +5056,58 @@
         <v>22</v>
       </c>
       <c r="B69" s="9">
-        <v>0.39583333333333331</v>
+        <v>0.71875</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D69" s="10">
-        <v>-344</v>
+        <v>-278</v>
       </c>
       <c r="E69" s="10">
         <v>0</v>
       </c>
       <c r="F69" s="10">
-        <v>11.2</v>
+        <v>10.07</v>
       </c>
       <c r="G69" s="10">
-        <v>11.2</v>
+        <v>10.07</v>
       </c>
       <c r="H69" s="10">
-        <v>11.2</v>
+        <v>10.07</v>
       </c>
       <c r="I69" s="10">
-        <v>11.2</v>
+        <v>10.07</v>
       </c>
       <c r="J69" s="10">
-        <v>11.599281046</v>
+        <v>11.047809317</v>
       </c>
       <c r="K69" s="10">
-        <v>11.310518455</v>
+        <v>10.219969122</v>
       </c>
       <c r="L69" s="10">
-        <v>11.234663348</v>
+        <v>10.1388528</v>
       </c>
       <c r="M69" s="10">
-        <v>11.38</v>
+        <v>10.27</v>
       </c>
       <c r="N69" s="10">
-        <v>11.04</v>
+        <v>9.98</v>
       </c>
       <c r="O69" s="10">
-        <v>11.69</v>
+        <v>10.37</v>
       </c>
       <c r="P69" s="10">
-        <v>11.16</v>
+        <v>10.59</v>
       </c>
       <c r="Q69" s="10">
-        <v>11.170791731</v>
+        <v>10.098887847</v>
       </c>
       <c r="R69" s="10">
-        <v>922</v>
+        <v>85660</v>
       </c>
       <c r="S69" s="10">
-        <v>722</v>
+        <v>111</v>
       </c>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
@@ -5125,64 +5118,67 @@
         <v>22</v>
       </c>
       <c r="B70" s="5">
-        <v>0.38194444444444442</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D70" s="6">
-        <v>-345</v>
+        <v>-277</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
       <c r="F70" s="6">
-        <v>11.0106</v>
+        <v>10.28</v>
       </c>
       <c r="G70" s="6">
-        <v>11.0106</v>
+        <v>10.28</v>
       </c>
       <c r="H70" s="6">
-        <v>11.0106</v>
+        <v>10.28</v>
       </c>
       <c r="I70" s="6">
-        <v>11.0106</v>
+        <v>10.28</v>
       </c>
       <c r="J70" s="6">
-        <v>11.603742285999999</v>
+        <v>11.039325236</v>
       </c>
       <c r="K70" s="6">
-        <v>11.322151977000001</v>
+        <v>10.225686349</v>
       </c>
       <c r="L70" s="6">
-        <v>11.243329185</v>
+        <v>10.167082239999999</v>
       </c>
       <c r="M70" s="6">
-        <v>11.41</v>
+        <v>10.32</v>
       </c>
       <c r="N70" s="6">
-        <v>11.04</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="O70" s="6">
-        <v>11.7</v>
+        <v>10.37</v>
       </c>
       <c r="P70" s="6">
-        <v>11.01</v>
+        <v>10.59</v>
       </c>
       <c r="Q70" s="6">
-        <v>11.151319551</v>
+        <v>10.171332708</v>
       </c>
       <c r="R70" s="6">
-        <v>200</v>
+        <v>85760</v>
       </c>
       <c r="S70" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V70">
+    <sortCondition ref="B2:B70"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>